--- a/Projects/1 - Building An Equal-Weight S&P 500 Index Fund/recommended trades.xlsx
+++ b/Projects/1 - Building An Equal-Weight S&P 500 Index Fund/recommended trades.xlsx
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>130.11</v>
+        <v>130.346</v>
       </c>
       <c r="C2" s="2">
-        <v>40309822581</v>
+        <v>40527794594</v>
       </c>
       <c r="D2" s="3">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>16.17</v>
+        <v>16.77</v>
       </c>
       <c r="C3" s="2">
-        <v>9604278296</v>
+        <v>10017922788</v>
       </c>
       <c r="D3" s="3">
-        <v>1224</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>169.48</v>
+        <v>174.092</v>
       </c>
       <c r="C4" s="2">
-        <v>11487650538</v>
+        <v>11746396257</v>
       </c>
       <c r="D4" s="3">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>128.43</v>
+        <v>131.4</v>
       </c>
       <c r="C5" s="2">
-        <v>2167746379161</v>
+        <v>2203652069531</v>
       </c>
       <c r="D5" s="3">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>113.97</v>
+        <v>114.507</v>
       </c>
       <c r="C6" s="2">
-        <v>203760621649</v>
+        <v>198528364449</v>
       </c>
       <c r="D6" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>107.3</v>
       </c>
       <c r="C7" s="2">
-        <v>21948198903</v>
+        <v>22577128504</v>
       </c>
       <c r="D7" s="3">
         <v>184</v>
@@ -2021,13 +2021,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>330.55</v>
+        <v>340.91</v>
       </c>
       <c r="C8" s="2">
-        <v>15016345310</v>
+        <v>15296810293</v>
       </c>
       <c r="D8" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2035,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>113</v>
+        <v>118.1</v>
       </c>
       <c r="C9" s="2">
-        <v>204960660528</v>
+        <v>203093446297</v>
       </c>
       <c r="D9" s="3">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,13 +2049,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>265.69</v>
+        <v>260.94</v>
       </c>
       <c r="C10" s="2">
-        <v>169225816913</v>
+        <v>177032079890</v>
       </c>
       <c r="D10" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2063,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>466.83</v>
+        <v>458.78</v>
       </c>
       <c r="C11" s="2">
-        <v>226541310264</v>
+        <v>227534179839</v>
       </c>
       <c r="D11" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2077,13 +2077,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>165.46</v>
+        <v>166.63</v>
       </c>
       <c r="C12" s="2">
-        <v>59097479456</v>
+        <v>60577662344</v>
       </c>
       <c r="D12" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2091,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>53.9</v>
+        <v>54.43</v>
       </c>
       <c r="C13" s="2">
-        <v>29953714647</v>
+        <v>29711976991</v>
       </c>
       <c r="D13" s="3">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,13 +2105,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>161.72</v>
+        <v>168.18</v>
       </c>
       <c r="C14" s="2">
-        <v>70488773759</v>
+        <v>72313368636</v>
       </c>
       <c r="D14" s="3">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>319.61</v>
+        <v>321.417</v>
       </c>
       <c r="C15" s="2">
-        <v>67843470268</v>
+        <v>70671828156</v>
       </c>
       <c r="D15" s="3">
         <v>61</v>
@@ -2133,13 +2133,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>75.76000000000001</v>
+        <v>74.04600000000001</v>
       </c>
       <c r="C16" s="2">
-        <v>18645525256</v>
+        <v>19014240872</v>
       </c>
       <c r="D16" s="3">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2147,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>80.86</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>41867364487</v>
+        <v>40275480496</v>
       </c>
       <c r="D17" s="3">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>28</v>
+        <v>28.32</v>
       </c>
       <c r="C18" s="2">
-        <v>18830507091</v>
+        <v>19445110310</v>
       </c>
       <c r="D18" s="3">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>47.85</v>
+        <v>47.79</v>
       </c>
       <c r="C19" s="2">
-        <v>33358747234</v>
+        <v>34223277384</v>
       </c>
       <c r="D19" s="3">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>41.4</v>
+        <v>43.63</v>
       </c>
       <c r="C20" s="2">
-        <v>36980248050</v>
+        <v>36766387471</v>
       </c>
       <c r="D20" s="3">
-        <v>478</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>5.1</v>
+        <v>4.891</v>
       </c>
       <c r="C21" s="2">
-        <v>761687090</v>
+        <v>781718867</v>
       </c>
       <c r="D21" s="3">
-        <v>3882</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,13 +2217,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>143.34</v>
+        <v>147.148</v>
       </c>
       <c r="C22" s="2">
-        <v>8459331997</v>
+        <v>8604582614</v>
       </c>
       <c r="D22" s="3">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2231,13 +2231,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>120.56</v>
+        <v>119.42</v>
       </c>
       <c r="C23" s="2">
-        <v>22580137653</v>
+        <v>23621634257</v>
       </c>
       <c r="D23" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>110.62</v>
+        <v>111.2</v>
       </c>
       <c r="C24" s="2">
-        <v>17454260754</v>
+        <v>18310475866</v>
       </c>
       <c r="D24" s="3">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,10 +2259,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>184.23</v>
+        <v>184.81</v>
       </c>
       <c r="C25" s="2">
-        <v>19708239491</v>
+        <v>20130487039</v>
       </c>
       <c r="D25" s="3">
         <v>107</v>
@@ -2273,13 +2273,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>579.58</v>
+        <v>556.915</v>
       </c>
       <c r="C26" s="2">
-        <v>44881063155</v>
+        <v>44259912220</v>
       </c>
       <c r="D26" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>54.16</v>
+        <v>55.084</v>
       </c>
       <c r="C27" s="2">
-        <v>6933673819</v>
+        <v>6887559858</v>
       </c>
       <c r="D27" s="3">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2301,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>109</v>
+        <v>112.704</v>
       </c>
       <c r="C28" s="2">
-        <v>33698278402</v>
+        <v>34371878481</v>
       </c>
       <c r="D28" s="3">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>117.08</v>
+        <v>118.13</v>
       </c>
       <c r="C29" s="2">
-        <v>10699750350</v>
+        <v>11073804690</v>
       </c>
       <c r="D29" s="3">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,13 +2329,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>157.1</v>
+        <v>160.87</v>
       </c>
       <c r="C30" s="2">
-        <v>35093748519</v>
+        <v>35517823916</v>
       </c>
       <c r="D30" s="3">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2343,13 +2343,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>105.24</v>
+        <v>108.86</v>
       </c>
       <c r="C31" s="2">
-        <v>94534446895</v>
+        <v>96594027580</v>
       </c>
       <c r="D31" s="3">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2357,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>11.27</v>
+        <v>11.443</v>
       </c>
       <c r="C32" s="2">
-        <v>17737366610</v>
+        <v>17358591181</v>
       </c>
       <c r="D32" s="3">
-        <v>1757</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2371,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>92.23999999999999</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C33" s="2">
-        <v>106341317597</v>
+        <v>110320823255</v>
       </c>
       <c r="D33" s="3">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,13 +2385,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>120</v>
+        <v>121.489</v>
       </c>
       <c r="C34" s="2">
-        <v>27775586881</v>
+        <v>28310807960</v>
       </c>
       <c r="D34" s="3">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,13 +2399,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>247.48</v>
+        <v>249.25</v>
       </c>
       <c r="C35" s="2">
-        <v>146705145527</v>
+        <v>150064515890</v>
       </c>
       <c r="D35" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,13 +2413,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>211.78</v>
+        <v>216.08</v>
       </c>
       <c r="C36" s="2">
-        <v>24675606521</v>
+        <v>25499924901</v>
       </c>
       <c r="D36" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2427,13 +2427,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>229.99</v>
+        <v>219.36</v>
       </c>
       <c r="C37" s="2">
-        <v>100271700977</v>
+        <v>97880354030</v>
       </c>
       <c r="D37" s="3">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3119.64</v>
+        <v>3114.01</v>
       </c>
       <c r="C38" s="2">
-        <v>1614840880133</v>
+        <v>1560445773837</v>
       </c>
       <c r="D38" s="3">
         <v>6</v>
@@ -2455,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>332.11</v>
+        <v>328.04</v>
       </c>
       <c r="C39" s="2">
-        <v>24999481499</v>
+        <v>23974805380</v>
       </c>
       <c r="D39" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,13 +2469,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>373.02</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2">
-        <v>31984821230</v>
+        <v>33264672947</v>
       </c>
       <c r="D40" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2483,10 +2483,10 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>334.09</v>
+        <v>332.15</v>
       </c>
       <c r="C41" s="2">
-        <v>81453497133</v>
+        <v>84905821905</v>
       </c>
       <c r="D41" s="3">
         <v>59</v>
@@ -2497,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>209.22</v>
+        <v>212.35</v>
       </c>
       <c r="C42" s="2">
-        <v>49884031665</v>
+        <v>50006454427</v>
       </c>
       <c r="D42" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2511,13 +2511,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>58.8</v>
+        <v>58.28</v>
       </c>
       <c r="C43" s="2">
-        <v>9393963242</v>
+        <v>9712351946</v>
       </c>
       <c r="D43" s="3">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>17.56</v>
+        <v>18.149</v>
       </c>
       <c r="C44" s="2">
-        <v>6563405748</v>
+        <v>6907897979</v>
       </c>
       <c r="D44" s="3">
-        <v>1127</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,13 +2539,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>291.6</v>
+        <v>286.71</v>
       </c>
       <c r="C45" s="2">
-        <v>65645520219</v>
+        <v>64490142022</v>
       </c>
       <c r="D45" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2553,13 +2553,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>132.54</v>
+        <v>138.687</v>
       </c>
       <c r="C46" s="2">
-        <v>39540529112</v>
+        <v>41046037908</v>
       </c>
       <c r="D46" s="3">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2567,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>145.78</v>
+        <v>149.738</v>
       </c>
       <c r="C47" s="2">
-        <v>40252649787</v>
+        <v>39867258045</v>
       </c>
       <c r="D47" s="3">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,13 +2581,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>171.52</v>
+        <v>169.05</v>
       </c>
       <c r="C48" s="2">
-        <v>23895629860</v>
+        <v>23959982763</v>
       </c>
       <c r="D48" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2595,13 +2595,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>91</v>
+        <v>92.94</v>
       </c>
       <c r="C49" s="2">
-        <v>11610294519</v>
+        <v>11917774119</v>
       </c>
       <c r="D49" s="3">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2609,13 +2609,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>91.31</v>
+        <v>92.61</v>
       </c>
       <c r="C50" s="2">
-        <v>72138260369</v>
+        <v>72028104741</v>
       </c>
       <c r="D50" s="3">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2623,13 +2623,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>170</v>
+        <v>168.88</v>
       </c>
       <c r="C51" s="2">
-        <v>23759623551</v>
+        <v>22919161692</v>
       </c>
       <c r="D51" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,10 +2637,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>458.14</v>
+        <v>453.38</v>
       </c>
       <c r="C52" s="2">
-        <v>187147434686</v>
+        <v>189278445502</v>
       </c>
       <c r="D52" s="3">
         <v>43</v>
@@ -2651,10 +2651,10 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>163.67</v>
+        <v>164.18</v>
       </c>
       <c r="C53" s="2">
-        <v>13909520813</v>
+        <v>13943967388</v>
       </c>
       <c r="D53" s="3">
         <v>120</v>
@@ -2665,13 +2665,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>162.73</v>
+        <v>166.43</v>
       </c>
       <c r="C54" s="2">
-        <v>29524582821</v>
+        <v>29974116721</v>
       </c>
       <c r="D54" s="3">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>123.56</v>
+        <v>127.96</v>
       </c>
       <c r="C55" s="2">
-        <v>98618733073</v>
+        <v>104737809314</v>
       </c>
       <c r="D55" s="3">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>1308.47</v>
+        <v>1299.59</v>
       </c>
       <c r="C56" s="2">
-        <v>29360119917</v>
+        <v>28299615993</v>
       </c>
       <c r="D56" s="3">
         <v>15</v>
@@ -2707,13 +2707,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>211.4</v>
+        <v>216.49</v>
       </c>
       <c r="C57" s="2">
-        <v>116283239090</v>
+        <v>120184618929</v>
       </c>
       <c r="D57" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2721,13 +2721,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>33.31</v>
+        <v>33.169</v>
       </c>
       <c r="C58" s="2">
-        <v>285765700226</v>
+        <v>285548289634</v>
       </c>
       <c r="D58" s="3">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>80.18000000000001</v>
+        <v>79.48</v>
       </c>
       <c r="C59" s="2">
-        <v>41362207172</v>
+        <v>40875203356</v>
       </c>
       <c r="D59" s="3">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>117</v>
+        <v>116.42</v>
       </c>
       <c r="C60" s="2">
-        <v>30163250026</v>
+        <v>30301536488</v>
       </c>
       <c r="D60" s="3">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,13 +2763,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>263.91</v>
+        <v>275.645</v>
       </c>
       <c r="C61" s="2">
-        <v>77216627658</v>
+        <v>78813878237</v>
       </c>
       <c r="D61" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2777,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>27.72</v>
+        <v>27.827</v>
       </c>
       <c r="C62" s="2">
-        <v>13537595761</v>
+        <v>14278111456</v>
       </c>
       <c r="D62" s="3">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>77.2</v>
+        <v>75.2</v>
       </c>
       <c r="C63" s="2">
-        <v>34683513253</v>
+        <v>35052852874</v>
       </c>
       <c r="D63" s="3">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>286.87</v>
+        <v>282.97</v>
       </c>
       <c r="C64" s="2">
-        <v>43984657920</v>
+        <v>44122603567</v>
       </c>
       <c r="D64" s="3">
         <v>69</v>
@@ -2819,13 +2819,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>626.41</v>
+        <v>616.7</v>
       </c>
       <c r="C65" s="2">
-        <v>18351356749</v>
+        <v>18170638512</v>
       </c>
       <c r="D65" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2833,13 +2833,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>45.72</v>
+        <v>47.97</v>
       </c>
       <c r="C66" s="2">
-        <v>42042476576</v>
+        <v>41193878042</v>
       </c>
       <c r="D66" s="3">
-        <v>433</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,13 +2847,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2222.68</v>
+        <v>2196.63</v>
       </c>
       <c r="C67" s="2">
-        <v>90749225234</v>
+        <v>88130480273</v>
       </c>
       <c r="D67" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2861,13 +2861,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>23.61</v>
+        <v>23.657</v>
       </c>
       <c r="C68" s="2">
-        <v>24541823196</v>
+        <v>24835256431</v>
       </c>
       <c r="D68" s="3">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2875,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>754.54</v>
+        <v>762.26</v>
       </c>
       <c r="C69" s="2">
-        <v>114831648944</v>
+        <v>113115220103</v>
       </c>
       <c r="D69" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,13 +2889,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>90.59</v>
+        <v>91.81</v>
       </c>
       <c r="C70" s="2">
-        <v>30643519260</v>
+        <v>29863274612</v>
       </c>
       <c r="D70" s="3">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2903,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>67.44</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>153002328760</v>
+        <v>157630503202</v>
       </c>
       <c r="D71" s="3">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2917,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>157.2</v>
+        <v>152.8</v>
       </c>
       <c r="C72" s="2">
-        <v>17688666870</v>
+        <v>18374722618</v>
       </c>
       <c r="D72" s="3">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,13 +2931,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>242.23</v>
+        <v>238.62</v>
       </c>
       <c r="C73" s="2">
-        <v>555018315535</v>
+        <v>569663953923</v>
       </c>
       <c r="D73" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2945,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>36.55</v>
+        <v>37.388</v>
       </c>
       <c r="C74" s="2">
-        <v>53225022299</v>
+        <v>53349671081</v>
       </c>
       <c r="D74" s="3">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>40.3</v>
+        <v>40.03</v>
       </c>
       <c r="C75" s="2">
-        <v>9885737176</v>
+        <v>10009371945</v>
       </c>
       <c r="D75" s="3">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2973,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>95.7</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="C76" s="2">
-        <v>14913566984</v>
+        <v>14811241070</v>
       </c>
       <c r="D76" s="3">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2987,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>65.27</v>
+        <v>65.86799999999999</v>
       </c>
       <c r="C77" s="2">
-        <v>135227597437</v>
+        <v>135993889286</v>
       </c>
       <c r="D77" s="3">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>34.26</v>
+        <v>35.25</v>
       </c>
       <c r="C78" s="2">
-        <v>17233290792</v>
+        <v>17409872401</v>
       </c>
       <c r="D78" s="3">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3015,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>55.63</v>
+        <v>57.75</v>
       </c>
       <c r="C79" s="2">
-        <v>16299795227</v>
+        <v>16536271103</v>
       </c>
       <c r="D79" s="3">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3029,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>42.35</v>
+        <v>41.03</v>
       </c>
       <c r="C80" s="2">
-        <v>36319746656</v>
+        <v>35823918471</v>
       </c>
       <c r="D80" s="3">
-        <v>467</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,13 +3043,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>195.85</v>
+        <v>201.21</v>
       </c>
       <c r="C81" s="2">
-        <v>109012255979</v>
+        <v>106959264868</v>
       </c>
       <c r="D81" s="3">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3057,13 +3057,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>162.2</v>
+        <v>160.05</v>
       </c>
       <c r="C82" s="2">
-        <v>71568829626</v>
+        <v>72548384451</v>
       </c>
       <c r="D82" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3071,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>97.48999999999999</v>
+        <v>100.62</v>
       </c>
       <c r="C83" s="2">
-        <v>10484052694</v>
+        <v>10613927693</v>
       </c>
       <c r="D83" s="3">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3085,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>65.25</v>
+        <v>65.002</v>
       </c>
       <c r="C84" s="2">
-        <v>21568021701</v>
+        <v>22262847108</v>
       </c>
       <c r="D84" s="3">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,13 +3099,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>162.15</v>
+        <v>162.47</v>
       </c>
       <c r="C85" s="2">
-        <v>67997563100</v>
+        <v>68938850159</v>
       </c>
       <c r="D85" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3113,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>20.99</v>
+        <v>21.144</v>
       </c>
       <c r="C86" s="2">
-        <v>23501160973</v>
+        <v>24170483881</v>
       </c>
       <c r="D86" s="3">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,13 +3127,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>136.35</v>
+        <v>137.053</v>
       </c>
       <c r="C87" s="2">
-        <v>38899860011</v>
+        <v>39703779201</v>
       </c>
       <c r="D87" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3141,13 +3141,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>133.69</v>
+        <v>136.05</v>
       </c>
       <c r="C88" s="2">
-        <v>19137382837</v>
+        <v>19764471641</v>
       </c>
       <c r="D88" s="3">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3155,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>136.24</v>
+        <v>139.941</v>
       </c>
       <c r="C89" s="2">
-        <v>15742309045</v>
+        <v>16174445265</v>
       </c>
       <c r="D89" s="3">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3169,13 +3169,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>81.98</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C90" s="2">
-        <v>24891750799</v>
+        <v>25412113672</v>
       </c>
       <c r="D90" s="3">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3183,13 +3183,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>47.3</v>
+        <v>46.93</v>
       </c>
       <c r="C91" s="2">
-        <v>9829299423</v>
+        <v>9851335483</v>
       </c>
       <c r="D91" s="3">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>42.46</v>
+        <v>41.88</v>
       </c>
       <c r="C92" s="2">
-        <v>17697874950</v>
+        <v>17704848735</v>
       </c>
       <c r="D92" s="3">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3211,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>86.63</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="C93" s="2">
-        <v>21714147011</v>
+        <v>21728284016</v>
       </c>
       <c r="D93" s="3">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,13 +3225,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>97.88</v>
+        <v>98.29000000000001</v>
       </c>
       <c r="C94" s="2">
-        <v>13026854888</v>
+        <v>13303863712</v>
       </c>
       <c r="D94" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>654.63</v>
+        <v>638.83</v>
       </c>
       <c r="C95" s="2">
-        <v>129793402155</v>
+        <v>131245181842</v>
       </c>
       <c r="D95" s="3">
         <v>30</v>
@@ -3253,13 +3253,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>222</v>
+        <v>229.62</v>
       </c>
       <c r="C96" s="2">
-        <v>79873218771</v>
+        <v>79696895125</v>
       </c>
       <c r="D96" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>96</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C97" s="2">
-        <v>15623262837</v>
+        <v>15399403835</v>
       </c>
       <c r="D97" s="3">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3281,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>84.73</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C98" s="2">
-        <v>70775647344</v>
+        <v>71058760839</v>
       </c>
       <c r="D98" s="3">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3295,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>202.09</v>
+        <v>198.2</v>
       </c>
       <c r="C99" s="2">
-        <v>26046721895</v>
+        <v>25399122945</v>
       </c>
       <c r="D99" s="3">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3309,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>65.02</v>
+        <v>65.53</v>
       </c>
       <c r="C100" s="2">
-        <v>8936296269</v>
+        <v>9366806423</v>
       </c>
       <c r="D100" s="3">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>50.72</v>
+        <v>49.537</v>
       </c>
       <c r="C101" s="2">
-        <v>223611002189</v>
+        <v>225957878892</v>
       </c>
       <c r="D101" s="3">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3337,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>195.73</v>
+        <v>197.36</v>
       </c>
       <c r="C102" s="2">
-        <v>70731273176</v>
+        <v>70586470247</v>
       </c>
       <c r="D102" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,10 +3351,10 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1465.49</v>
+        <v>1421.89</v>
       </c>
       <c r="C103" s="2">
-        <v>40655912505</v>
+        <v>39618389393</v>
       </c>
       <c r="D103" s="3">
         <v>13</v>
@@ -3365,10 +3365,10 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>247.11</v>
+        <v>245.424</v>
       </c>
       <c r="C104" s="2">
-        <v>35682655267</v>
+        <v>36473241956</v>
       </c>
       <c r="D104" s="3">
         <v>80</v>
@@ -3379,13 +3379,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>59.23</v>
+        <v>61.302</v>
       </c>
       <c r="C105" s="2">
-        <v>17405650036</v>
+        <v>17465945275</v>
       </c>
       <c r="D105" s="3">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3393,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>65.93000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="C106" s="2">
-        <v>37425076967</v>
+        <v>37942214695</v>
       </c>
       <c r="D106" s="3">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3407,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>21.98</v>
+        <v>21.512</v>
       </c>
       <c r="C107" s="2">
-        <v>11957991508</v>
+        <v>11923923876</v>
       </c>
       <c r="D107" s="3">
-        <v>900</v>
+        <v>920</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,13 +3421,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>114.77</v>
+        <v>115.748</v>
       </c>
       <c r="C108" s="2">
-        <v>52159416243</v>
+        <v>54534288004</v>
       </c>
       <c r="D108" s="3">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3435,13 +3435,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>19.59</v>
+        <v>18.936</v>
       </c>
       <c r="C109" s="2">
-        <v>7712252309</v>
+        <v>7817456008</v>
       </c>
       <c r="D109" s="3">
-        <v>1010</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3449,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>394.62</v>
+        <v>397.26</v>
       </c>
       <c r="C110" s="2">
-        <v>21008207930</v>
+        <v>20791788941</v>
       </c>
       <c r="D110" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3463,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>46.2</v>
+        <v>45.961</v>
       </c>
       <c r="C111" s="2">
-        <v>49405815257</v>
+        <v>49193412872</v>
       </c>
       <c r="D111" s="3">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3477,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>377.18</v>
+        <v>364.4</v>
       </c>
       <c r="C112" s="2">
-        <v>166975865696</v>
+        <v>163128024166</v>
       </c>
       <c r="D112" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3491,13 +3491,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>7.2</v>
+        <v>7.15</v>
       </c>
       <c r="C113" s="2">
-        <v>5448996833</v>
+        <v>5340021230</v>
       </c>
       <c r="D113" s="3">
-        <v>2750</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3505,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>47.23</v>
+        <v>47.44</v>
       </c>
       <c r="C114" s="2">
-        <v>14698243437</v>
+        <v>14698615554</v>
       </c>
       <c r="D114" s="3">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3519,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>120.82</v>
+        <v>116.96</v>
       </c>
       <c r="C115" s="2">
-        <v>28160069490</v>
+        <v>27926850601</v>
       </c>
       <c r="D115" s="3">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3533,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>220.1</v>
+        <v>224.61</v>
       </c>
       <c r="C116" s="2">
-        <v>197390856211</v>
+        <v>197398422647</v>
       </c>
       <c r="D116" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3547,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>45.54</v>
+        <v>45.423</v>
       </c>
       <c r="C117" s="2">
-        <v>192380231008</v>
+        <v>199455075684</v>
       </c>
       <c r="D117" s="3">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3561,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>98.05</v>
+        <v>97.333</v>
       </c>
       <c r="C118" s="2">
-        <v>73677829786</v>
+        <v>74364246069</v>
       </c>
       <c r="D118" s="3">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,13 +3575,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>335.96</v>
+        <v>331.04</v>
       </c>
       <c r="C119" s="2">
-        <v>35833568707</v>
+        <v>34041654618</v>
       </c>
       <c r="D119" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3592,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12207083758</v>
+        <v>12430531393</v>
       </c>
       <c r="D120" s="3">
         <v>1800</v>
@@ -3603,13 +3603,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>81.98999999999999</v>
+        <v>81.76000000000001</v>
       </c>
       <c r="C121" s="2">
-        <v>44778918290</v>
+        <v>43367133445</v>
       </c>
       <c r="D121" s="3">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3617,13 +3617,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>44.1</v>
+        <v>43.53</v>
       </c>
       <c r="C122" s="2">
-        <v>32618304840</v>
+        <v>32343226693</v>
       </c>
       <c r="D122" s="3">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3631,13 +3631,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>135</v>
+        <v>140.71</v>
       </c>
       <c r="C123" s="2">
-        <v>16693718731</v>
+        <v>17137409361</v>
       </c>
       <c r="D123" s="3">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3645,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>76.7</v>
+        <v>76.762</v>
       </c>
       <c r="C124" s="2">
-        <v>101296053894</v>
+        <v>103889365028</v>
       </c>
       <c r="D124" s="3">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,13 +3659,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>94.98</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C125" s="2">
-        <v>177522827825</v>
+        <v>181270664162</v>
       </c>
       <c r="D125" s="3">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3673,13 +3673,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>67.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C126" s="2">
-        <v>13314396378</v>
+        <v>13396796398</v>
       </c>
       <c r="D126" s="3">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3687,13 +3687,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>73.37</v>
+        <v>74.706</v>
       </c>
       <c r="C127" s="2">
-        <v>58986750497</v>
+        <v>59181756450</v>
       </c>
       <c r="D127" s="3">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>40.63</v>
+        <v>40.578</v>
       </c>
       <c r="C128" s="2">
-        <v>26330694416</v>
+        <v>26636655976</v>
       </c>
       <c r="D128" s="3">
         <v>487</v>
@@ -3715,13 +3715,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>85.92</v>
+        <v>86.38</v>
       </c>
       <c r="C129" s="2">
-        <v>61626453949</v>
+        <v>63070118411</v>
       </c>
       <c r="D129" s="3">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,13 +3729,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>300.5</v>
+        <v>312.19</v>
       </c>
       <c r="C130" s="2">
-        <v>93727792796</v>
+        <v>98234156793</v>
       </c>
       <c r="D130" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3743,13 +3743,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>100.33</v>
+        <v>102.38</v>
       </c>
       <c r="C131" s="2">
-        <v>29968655093</v>
+        <v>31696614637</v>
       </c>
       <c r="D131" s="3">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>218.14</v>
+        <v>219.14</v>
       </c>
       <c r="C132" s="2">
-        <v>52614714553</v>
+        <v>53580838601</v>
       </c>
       <c r="D132" s="3">
         <v>90</v>
@@ -3771,13 +3771,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>125.46</v>
+        <v>131.9</v>
       </c>
       <c r="C133" s="2">
-        <v>17100174236</v>
+        <v>17346520280</v>
       </c>
       <c r="D133" s="3">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3785,13 +3785,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>70.03</v>
+        <v>71.66</v>
       </c>
       <c r="C134" s="2">
-        <v>25523023078</v>
+        <v>26112346802</v>
       </c>
       <c r="D134" s="3">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3799,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>239.14</v>
+        <v>249.1</v>
       </c>
       <c r="C135" s="2">
-        <v>170067352929</v>
+        <v>169933393452</v>
       </c>
       <c r="D135" s="3">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3813,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>176.6</v>
+        <v>179.96</v>
       </c>
       <c r="C136" s="2">
-        <v>315311319665</v>
+        <v>318414096120</v>
       </c>
       <c r="D136" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3827,13 +3827,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>37.71</v>
+        <v>36.502</v>
       </c>
       <c r="C137" s="2">
-        <v>17116779023</v>
+        <v>16650904795</v>
       </c>
       <c r="D137" s="3">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3841,13 +3841,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>32.63</v>
+        <v>31.93</v>
       </c>
       <c r="C138" s="2">
-        <v>16871289140</v>
+        <v>16793100039</v>
       </c>
       <c r="D138" s="3">
-        <v>606</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3855,13 +3855,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>33.6</v>
+        <v>34.16</v>
       </c>
       <c r="C139" s="2">
-        <v>17736189909</v>
+        <v>17735183627</v>
       </c>
       <c r="D139" s="3">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3869,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>142.26</v>
+        <v>142.758</v>
       </c>
       <c r="C140" s="2">
-        <v>38544282013</v>
+        <v>38939103136</v>
       </c>
       <c r="D140" s="3">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,13 +3883,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>110.84</v>
+        <v>111.595</v>
       </c>
       <c r="C141" s="2">
-        <v>25753345375</v>
+        <v>26214029666</v>
       </c>
       <c r="D141" s="3">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3897,13 +3897,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>129.25</v>
+        <v>133.04</v>
       </c>
       <c r="C142" s="2">
-        <v>18508341714</v>
+        <v>18958367091</v>
       </c>
       <c r="D142" s="3">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>58.1</v>
+        <v>58.352</v>
       </c>
       <c r="C143" s="2">
-        <v>43034999751</v>
+        <v>44213715669</v>
       </c>
       <c r="D143" s="3">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,13 +3925,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>393.86</v>
+        <v>388.22</v>
       </c>
       <c r="C144" s="2">
-        <v>15429329730</v>
+        <v>15238073437</v>
       </c>
       <c r="D144" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3939,13 +3939,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>38.9</v>
+        <v>40.71</v>
       </c>
       <c r="C145" s="2">
-        <v>14691163957</v>
+        <v>15023286525</v>
       </c>
       <c r="D145" s="3">
-        <v>509</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3953,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>124.13</v>
+        <v>127.69</v>
       </c>
       <c r="C146" s="2">
-        <v>15795480827</v>
+        <v>16491580408</v>
       </c>
       <c r="D146" s="3">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,13 +3967,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>125.74</v>
+        <v>128.5</v>
       </c>
       <c r="C147" s="2">
-        <v>24758306604</v>
+        <v>24085678779</v>
       </c>
       <c r="D147" s="3">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3981,13 +3981,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>94.27</v>
+        <v>92.592</v>
       </c>
       <c r="C148" s="2">
-        <v>68853809961</v>
+        <v>69290901957</v>
       </c>
       <c r="D148" s="3">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,13 +3995,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>121.12</v>
+        <v>122.43</v>
       </c>
       <c r="C149" s="2">
-        <v>13806301869</v>
+        <v>13719893648</v>
       </c>
       <c r="D149" s="3">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4009,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>20.33</v>
+        <v>20.22</v>
       </c>
       <c r="C150" s="2">
-        <v>7709986973</v>
+        <v>7921844874</v>
       </c>
       <c r="D150" s="3">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4023,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>29.3</v>
+        <v>28.93</v>
       </c>
       <c r="C151" s="2">
-        <v>7498737915</v>
+        <v>7474091037</v>
       </c>
       <c r="D151" s="3">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>365.2</v>
+        <v>364.549</v>
       </c>
       <c r="C152" s="2">
-        <v>35346079643</v>
+        <v>34092462229</v>
       </c>
       <c r="D152" s="3">
         <v>54</v>
@@ -4051,13 +4051,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>144</v>
+        <v>144.67</v>
       </c>
       <c r="C153" s="2">
-        <v>41137387151</v>
+        <v>42121405902</v>
       </c>
       <c r="D153" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4065,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>57.78</v>
+        <v>56.2</v>
       </c>
       <c r="C154" s="2">
-        <v>39936626277</v>
+        <v>40284341021</v>
       </c>
       <c r="D154" s="3">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4079,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>221.04</v>
+        <v>224.06</v>
       </c>
       <c r="C155" s="2">
-        <v>62117964283</v>
+        <v>62603721761</v>
       </c>
       <c r="D155" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,13 +4093,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>71.5</v>
+        <v>73.06</v>
       </c>
       <c r="C156" s="2">
-        <v>23711149746</v>
+        <v>24362994825</v>
       </c>
       <c r="D156" s="3">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4107,13 +4107,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>178</v>
+        <v>184.94</v>
       </c>
       <c r="C157" s="2">
-        <v>21810004317</v>
+        <v>22122004607</v>
       </c>
       <c r="D157" s="3">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>64.23</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="C158" s="2">
-        <v>24318794810</v>
+        <v>23946392627</v>
       </c>
       <c r="D158" s="3">
         <v>308</v>
@@ -4135,13 +4135,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>259.26</v>
+        <v>250.787</v>
       </c>
       <c r="C159" s="2">
-        <v>91298825379</v>
+        <v>90680370778</v>
       </c>
       <c r="D159" s="3">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4149,13 +4149,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>106.38</v>
+        <v>105.16</v>
       </c>
       <c r="C160" s="2">
-        <v>14254575329</v>
+        <v>14252755891</v>
       </c>
       <c r="D160" s="3">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4163,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>84.12</v>
+        <v>87.97</v>
       </c>
       <c r="C161" s="2">
-        <v>51768923748</v>
+        <v>50879581512</v>
       </c>
       <c r="D161" s="3">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4177,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>59.88</v>
+        <v>61.45</v>
       </c>
       <c r="C162" s="2">
-        <v>35888104002</v>
+        <v>36178123200</v>
       </c>
       <c r="D162" s="3">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,13 +4191,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>727.61</v>
+        <v>741.62</v>
       </c>
       <c r="C163" s="2">
-        <v>65297137676</v>
+        <v>65436967350</v>
       </c>
       <c r="D163" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4205,13 +4205,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>63.14</v>
+        <v>64.3</v>
       </c>
       <c r="C164" s="2">
-        <v>23265628354</v>
+        <v>23480230933</v>
       </c>
       <c r="D164" s="3">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4219,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>90.22</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="C165" s="2">
-        <v>30633574100</v>
+        <v>30116306587</v>
       </c>
       <c r="D165" s="3">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4233,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>250.99</v>
+        <v>242.95</v>
       </c>
       <c r="C166" s="2">
-        <v>15797266177</v>
+        <v>16397352034</v>
       </c>
       <c r="D166" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4247,13 +4247,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>49.33</v>
+        <v>49.46</v>
       </c>
       <c r="C167" s="2">
-        <v>11288859193</v>
+        <v>11409094722</v>
       </c>
       <c r="D167" s="3">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4261,13 +4261,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>129.12</v>
+        <v>126.9</v>
       </c>
       <c r="C168" s="2">
-        <v>50643823110</v>
+        <v>51711260882</v>
       </c>
       <c r="D168" s="3">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4275,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>95.31999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C169" s="2">
-        <v>19294388890</v>
+        <v>19489563171</v>
       </c>
       <c r="D169" s="3">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4289,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>55.2</v>
+        <v>54.018</v>
       </c>
       <c r="C170" s="2">
-        <v>12615004988</v>
+        <v>12671004896</v>
       </c>
       <c r="D170" s="3">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4303,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>89.06999999999999</v>
+        <v>91.95</v>
       </c>
       <c r="C171" s="2">
-        <v>55653521212</v>
+        <v>55434840255</v>
       </c>
       <c r="D171" s="3">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4317,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>43.43</v>
+        <v>45.02</v>
       </c>
       <c r="C172" s="2">
-        <v>43540473651</v>
+        <v>43077352542</v>
       </c>
       <c r="D172" s="3">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,13 +4331,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>95.54000000000001</v>
+        <v>97.23</v>
       </c>
       <c r="C173" s="2">
-        <v>16503183675</v>
+        <v>15856801161</v>
       </c>
       <c r="D173" s="3">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4345,13 +4345,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>143.13</v>
+        <v>147.97</v>
       </c>
       <c r="C174" s="2">
-        <v>19623651469</v>
+        <v>19988925412</v>
       </c>
       <c r="D174" s="3">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4359,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>112.83</v>
+        <v>116.84</v>
       </c>
       <c r="C175" s="2">
-        <v>15126780405</v>
+        <v>14862462069</v>
       </c>
       <c r="D175" s="3">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4373,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>10.17</v>
+        <v>10.161</v>
       </c>
       <c r="C176" s="2">
-        <v>38512980754</v>
+        <v>40447482177</v>
       </c>
       <c r="D176" s="3">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4387,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>60.2</v>
+        <v>62</v>
       </c>
       <c r="C177" s="2">
-        <v>9563110605</v>
+        <v>9716545422</v>
       </c>
       <c r="D177" s="3">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,13 +4401,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>50.8</v>
+        <v>51.71</v>
       </c>
       <c r="C178" s="2">
-        <v>29318617990</v>
+        <v>29788511303</v>
       </c>
       <c r="D178" s="3">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4415,13 +4415,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>263.71</v>
+        <v>265.42</v>
       </c>
       <c r="C179" s="2">
-        <v>746844164730</v>
+        <v>738815204754</v>
       </c>
       <c r="D179" s="3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4429,13 +4429,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>91.56999999999999</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="C180" s="2">
-        <v>12614293813</v>
+        <v>13037533322</v>
       </c>
       <c r="D180" s="3">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4443,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>31.24</v>
+        <v>31.821</v>
       </c>
       <c r="C181" s="2">
-        <v>45002125581</v>
+        <v>47257393808</v>
       </c>
       <c r="D181" s="3">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4457,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>263.93</v>
+        <v>255.5</v>
       </c>
       <c r="C182" s="2">
-        <v>68271743390</v>
+        <v>70473863781</v>
       </c>
       <c r="D182" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4471,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>32.37</v>
+        <v>32.16</v>
       </c>
       <c r="C183" s="2">
-        <v>17735758994</v>
+        <v>17364898244</v>
       </c>
       <c r="D183" s="3">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,13 +4485,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>196.7</v>
+        <v>205.35</v>
       </c>
       <c r="C184" s="2">
-        <v>12494272185</v>
+        <v>12320471855</v>
       </c>
       <c r="D184" s="3">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4499,13 +4499,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>132.25</v>
+        <v>135.19</v>
       </c>
       <c r="C185" s="2">
-        <v>83781073443</v>
+        <v>82430503223</v>
       </c>
       <c r="D185" s="3">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4513,13 +4513,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>113.2</v>
+        <v>109.882</v>
       </c>
       <c r="C186" s="2">
-        <v>74020235160</v>
+        <v>75208725152</v>
       </c>
       <c r="D186" s="3">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4527,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>32.96</v>
+        <v>33.47</v>
       </c>
       <c r="C187" s="2">
-        <v>23336780304</v>
+        <v>24076293697</v>
       </c>
       <c r="D187" s="3">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4541,13 +4541,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>54.42</v>
+        <v>55.213</v>
       </c>
       <c r="C188" s="2">
-        <v>7198662595</v>
+        <v>7324562932</v>
       </c>
       <c r="D188" s="3">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4555,13 +4555,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>38.2</v>
+        <v>39.22</v>
       </c>
       <c r="C189" s="2">
-        <v>5087029875</v>
+        <v>5135882195</v>
       </c>
       <c r="D189" s="3">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4569,13 +4569,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>269.5</v>
+        <v>279.58</v>
       </c>
       <c r="C190" s="2">
-        <v>22856613723</v>
+        <v>22640707941</v>
       </c>
       <c r="D190" s="3">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4583,13 +4583,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>124.02</v>
+        <v>117.99</v>
       </c>
       <c r="C191" s="2">
-        <v>15975340782</v>
+        <v>15281834267</v>
       </c>
       <c r="D191" s="3">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4597,13 +4597,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>31.27</v>
+        <v>29.78</v>
       </c>
       <c r="C192" s="2">
-        <v>18923000241</v>
+        <v>18834193711</v>
       </c>
       <c r="D192" s="3">
-        <v>633</v>
+        <v>664</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,13 +4611,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>32.94</v>
+        <v>30.888</v>
       </c>
       <c r="C193" s="2">
-        <v>18551937041</v>
+        <v>17965072038</v>
       </c>
       <c r="D193" s="3">
-        <v>601</v>
+        <v>641</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4625,13 +4625,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>157.99</v>
+        <v>162.339</v>
       </c>
       <c r="C194" s="2">
-        <v>26887137790</v>
+        <v>26839772136</v>
       </c>
       <c r="D194" s="3">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4639,13 +4639,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>88.29000000000001</v>
+        <v>90.08</v>
       </c>
       <c r="C195" s="2">
-        <v>6622495003</v>
+        <v>6831123502</v>
       </c>
       <c r="D195" s="3">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4653,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>12.32</v>
+        <v>12.47</v>
       </c>
       <c r="C196" s="2">
-        <v>5391190856</v>
+        <v>5628527293</v>
       </c>
       <c r="D196" s="3">
-        <v>1607</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4667,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>148.39</v>
+        <v>152.911</v>
       </c>
       <c r="C197" s="2">
-        <v>24044753930</v>
+        <v>24122828863</v>
       </c>
       <c r="D197" s="3">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4681,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>73.25</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="C198" s="2">
-        <v>24125613172</v>
+        <v>24312174915</v>
       </c>
       <c r="D198" s="3">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4695,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>155.03</v>
+        <v>160.1</v>
       </c>
       <c r="C199" s="2">
-        <v>44390123020</v>
+        <v>45316061903</v>
       </c>
       <c r="D199" s="3">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4709,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>11.85</v>
+        <v>11.954</v>
       </c>
       <c r="C200" s="2">
-        <v>100571574934</v>
+        <v>102723625613</v>
       </c>
       <c r="D200" s="3">
-        <v>1671</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4723,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>63.53</v>
+        <v>70.56</v>
       </c>
       <c r="C201" s="2">
-        <v>83076587416</v>
+        <v>85920712809</v>
       </c>
       <c r="D201" s="3">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4737,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>56.66</v>
+        <v>58.54</v>
       </c>
       <c r="C202" s="2">
-        <v>34601588026</v>
+        <v>34323355250</v>
       </c>
       <c r="D202" s="3">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,13 +4751,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>96.72</v>
+        <v>100.6</v>
       </c>
       <c r="C203" s="2">
-        <v>10282764431</v>
+        <v>10474194915</v>
       </c>
       <c r="D203" s="3">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>39.4</v>
+        <v>38.811</v>
       </c>
       <c r="C204" s="2">
-        <v>29037040063</v>
+        <v>30779784802</v>
       </c>
       <c r="D204" s="3">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4779,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>50.64</v>
+        <v>55.469</v>
       </c>
       <c r="C205" s="2">
-        <v>73628842693</v>
+        <v>81519634155</v>
       </c>
       <c r="D205" s="3">
-        <v>391</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>1737.87</v>
+        <v>1787.15</v>
       </c>
       <c r="C206" s="2">
-        <v>1197245128073</v>
+        <v>1217180700886</v>
       </c>
       <c r="D206" s="3">
         <v>11</v>
@@ -4807,13 +4807,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>1741.71</v>
+        <v>1817.44</v>
       </c>
       <c r="C207" s="2">
-        <v>1181110877959</v>
+        <v>1196061572075</v>
       </c>
       <c r="D207" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4821,13 +4821,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>103.06</v>
+        <v>105.82</v>
       </c>
       <c r="C208" s="2">
-        <v>15253524738</v>
+        <v>15124179790</v>
       </c>
       <c r="D208" s="3">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>196.09</v>
+        <v>197.04</v>
       </c>
       <c r="C209" s="2">
-        <v>59968484126</v>
+        <v>59426003123</v>
       </c>
       <c r="D209" s="3">
         <v>100</v>
@@ -4849,13 +4849,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>22.7</v>
+        <v>22.62</v>
       </c>
       <c r="C210" s="2">
-        <v>8377055041</v>
+        <v>8458236963</v>
       </c>
       <c r="D210" s="3">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,13 +4863,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>123.31</v>
+        <v>123.8</v>
       </c>
       <c r="C211" s="2">
-        <v>23222487480</v>
+        <v>23532947376</v>
       </c>
       <c r="D211" s="3">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4877,13 +4877,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>308.91</v>
+        <v>301.47</v>
       </c>
       <c r="C212" s="2">
-        <v>104474103096</v>
+        <v>104349218557</v>
       </c>
       <c r="D212" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4891,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>394.94</v>
+        <v>396.666</v>
       </c>
       <c r="C213" s="2">
-        <v>21730741051</v>
+        <v>21618892242</v>
       </c>
       <c r="D213" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4905,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>21.44</v>
+        <v>20.991</v>
       </c>
       <c r="C214" s="2">
-        <v>18769600606</v>
+        <v>18763079384</v>
       </c>
       <c r="D214" s="3">
-        <v>923</v>
+        <v>943</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4919,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>101.4</v>
+        <v>99.17</v>
       </c>
       <c r="C215" s="2">
-        <v>13871348676</v>
+        <v>13687390504</v>
       </c>
       <c r="D215" s="3">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4933,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>14.96</v>
+        <v>14.889</v>
       </c>
       <c r="C216" s="2">
-        <v>15205912398</v>
+        <v>15626869227</v>
       </c>
       <c r="D216" s="3">
-        <v>1323</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4947,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>15.76</v>
+        <v>15.96</v>
       </c>
       <c r="C217" s="2">
-        <v>5722602673</v>
+        <v>5681065769</v>
       </c>
       <c r="D217" s="3">
-        <v>1256</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4961,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>171.14</v>
+        <v>168.2</v>
       </c>
       <c r="C218" s="2">
-        <v>57150493267</v>
+        <v>57482473376</v>
       </c>
       <c r="D218" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>285.95</v>
+        <v>285.28</v>
       </c>
       <c r="C219" s="2">
-        <v>308638201646</v>
+        <v>298818934293</v>
       </c>
       <c r="D219" s="3">
         <v>69</v>
@@ -4989,13 +4989,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>62.29</v>
+        <v>63.948</v>
       </c>
       <c r="C220" s="2">
-        <v>19678731025</v>
+        <v>19762358063</v>
       </c>
       <c r="D220" s="3">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5003,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>28.27</v>
+        <v>30.84</v>
       </c>
       <c r="C221" s="2">
-        <v>4591855936</v>
+        <v>4918635122</v>
       </c>
       <c r="D221" s="3">
-        <v>700</v>
+        <v>642</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,13 +5017,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>52.68</v>
+        <v>54.37</v>
       </c>
       <c r="C222" s="2">
-        <v>18611769064</v>
+        <v>18865752906</v>
       </c>
       <c r="D222" s="3">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5031,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>179.55</v>
+        <v>173.64</v>
       </c>
       <c r="C223" s="2">
-        <v>7238131797</v>
+        <v>7254346181</v>
       </c>
       <c r="D223" s="3">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5045,13 +5045,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>110.17</v>
+        <v>111.07</v>
       </c>
       <c r="C224" s="2">
-        <v>31071849018</v>
+        <v>30223758571</v>
       </c>
       <c r="D224" s="3">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5059,13 +5059,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>77</v>
+        <v>79.75</v>
       </c>
       <c r="C225" s="2">
-        <v>20201649936</v>
+        <v>20067201148</v>
       </c>
       <c r="D225" s="3">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5073,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>213.48</v>
+        <v>215.88</v>
       </c>
       <c r="C226" s="2">
-        <v>150236303196</v>
+        <v>146462600306</v>
       </c>
       <c r="D226" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5087,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>12.85</v>
+        <v>12.44</v>
       </c>
       <c r="C227" s="2">
-        <v>16416161457</v>
+        <v>16685414462</v>
       </c>
       <c r="D227" s="3">
-        <v>1541</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5101,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>26.22</v>
+        <v>25.95</v>
       </c>
       <c r="C228" s="2">
-        <v>32712596851</v>
+        <v>32813486596</v>
       </c>
       <c r="D228" s="3">
-        <v>755</v>
+        <v>763</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5115,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>16.6</v>
+        <v>16.84</v>
       </c>
       <c r="C229" s="2">
-        <v>3133804447</v>
+        <v>3143818519</v>
       </c>
       <c r="D229" s="3">
-        <v>1192</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5129,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>45.33</v>
+        <v>46.14</v>
       </c>
       <c r="C230" s="2">
-        <v>24759890608</v>
+        <v>24725292122</v>
       </c>
       <c r="D230" s="3">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5143,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>73.28</v>
+        <v>70.315</v>
       </c>
       <c r="C231" s="2">
-        <v>10590361196</v>
+        <v>10064049569</v>
       </c>
       <c r="D231" s="3">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5157,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>15.26</v>
+        <v>15.169</v>
       </c>
       <c r="C232" s="2">
-        <v>10676712324</v>
+        <v>10667134260</v>
       </c>
       <c r="D232" s="3">
-        <v>1297</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5171,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>152.69</v>
+        <v>155.644</v>
       </c>
       <c r="C233" s="2">
-        <v>32252992031</v>
+        <v>31948389286</v>
       </c>
       <c r="D233" s="3">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5185,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>425.52</v>
+        <v>417.23</v>
       </c>
       <c r="C234" s="2">
-        <v>54507990236</v>
+        <v>56389660235</v>
       </c>
       <c r="D234" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5199,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>29.25</v>
+        <v>28.07</v>
       </c>
       <c r="C235" s="2">
-        <v>12407898129</v>
+        <v>12248165513</v>
       </c>
       <c r="D235" s="3">
-        <v>676</v>
+        <v>705</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5213,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>134.7</v>
+        <v>133.3</v>
       </c>
       <c r="C236" s="2">
-        <v>114944731224</v>
+        <v>119819501490</v>
       </c>
       <c r="D236" s="3">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,13 +5227,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>116.15</v>
+        <v>120.23</v>
       </c>
       <c r="C237" s="2">
-        <v>66713431033</v>
+        <v>64655720641</v>
       </c>
       <c r="D237" s="3">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5241,13 +5241,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>513.67</v>
+        <v>490.029</v>
       </c>
       <c r="C238" s="2">
-        <v>42788475599</v>
+        <v>42347577714</v>
       </c>
       <c r="D238" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,13 +5255,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>203.6</v>
+        <v>196.899</v>
       </c>
       <c r="C239" s="2">
-        <v>15140759986</v>
+        <v>14994796950</v>
       </c>
       <c r="D239" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5269,13 +5269,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>123.57</v>
+        <v>119.09</v>
       </c>
       <c r="C240" s="2">
-        <v>13208235215</v>
+        <v>12752847188</v>
       </c>
       <c r="D240" s="3">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,13 +5283,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>383.93</v>
+        <v>394.443</v>
       </c>
       <c r="C241" s="2">
-        <v>55190263095</v>
+        <v>56724222101</v>
       </c>
       <c r="D241" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5297,13 +5297,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>92.45</v>
+        <v>96.34</v>
       </c>
       <c r="C242" s="2">
-        <v>20805512978</v>
+        <v>20249923664</v>
       </c>
       <c r="D242" s="3">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5311,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>87.09</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C243" s="2">
-        <v>37073867312</v>
+        <v>37900129657</v>
       </c>
       <c r="D243" s="3">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5325,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>60.15</v>
+        <v>59.48</v>
       </c>
       <c r="C244" s="2">
-        <v>247407587795</v>
+        <v>240197567424</v>
       </c>
       <c r="D244" s="3">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,13 +5339,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>386.66</v>
+        <v>395.11</v>
       </c>
       <c r="C245" s="2">
-        <v>106569434171</v>
+        <v>106461731865</v>
       </c>
       <c r="D245" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5353,13 +5353,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>50.34</v>
+        <v>53.519</v>
       </c>
       <c r="C246" s="2">
-        <v>20214288047</v>
+        <v>21075553720</v>
       </c>
       <c r="D246" s="3">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5367,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>25.47</v>
+        <v>25.15</v>
       </c>
       <c r="C247" s="2">
-        <v>9773560294</v>
+        <v>10116758080</v>
       </c>
       <c r="D247" s="3">
-        <v>777</v>
+        <v>787</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5381,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>245.88</v>
+        <v>269.27</v>
       </c>
       <c r="C248" s="2">
-        <v>13316973791</v>
+        <v>14126313925</v>
       </c>
       <c r="D248" s="3">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5395,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>193.45</v>
+        <v>189.85</v>
       </c>
       <c r="C249" s="2">
-        <v>37549417558</v>
+        <v>37852693970</v>
       </c>
       <c r="D249" s="3">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5409,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>46.74</v>
+        <v>46.6</v>
       </c>
       <c r="C250" s="2">
-        <v>19298431708</v>
+        <v>19971200790</v>
       </c>
       <c r="D250" s="3">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5423,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>30.19</v>
+        <v>30.67</v>
       </c>
       <c r="C251" s="2">
-        <v>8901158868</v>
+        <v>8780610612</v>
       </c>
       <c r="D251" s="3">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5437,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>805.95</v>
+        <v>781.45</v>
       </c>
       <c r="C252" s="2">
-        <v>93502103479</v>
+        <v>95962117001</v>
       </c>
       <c r="D252" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5451,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>166.11</v>
+        <v>162.747</v>
       </c>
       <c r="C253" s="2">
-        <v>14885127321</v>
+        <v>14400278032</v>
       </c>
       <c r="D253" s="3">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5465,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>205.19</v>
+        <v>217.26</v>
       </c>
       <c r="C254" s="2">
-        <v>66995353722</v>
+        <v>68465528662</v>
       </c>
       <c r="D254" s="3">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5479,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>21</v>
+        <v>20.291</v>
       </c>
       <c r="C255" s="2">
-        <v>9212802956</v>
+        <v>9274119699</v>
       </c>
       <c r="D255" s="3">
-        <v>942</v>
+        <v>975</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5493,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>111.87</v>
+        <v>114.93</v>
       </c>
       <c r="C256" s="2">
-        <v>14433244071</v>
+        <v>14980778264</v>
       </c>
       <c r="D256" s="3">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5507,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>157.82</v>
+        <v>156.76</v>
       </c>
       <c r="C257" s="2">
-        <v>16184482677</v>
+        <v>16848576949</v>
       </c>
       <c r="D257" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5521,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>52.53</v>
+        <v>55.17</v>
       </c>
       <c r="C258" s="2">
-        <v>38786121398</v>
+        <v>38420361965</v>
       </c>
       <c r="D258" s="3">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,13 +5535,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>161.98</v>
+        <v>160.18</v>
       </c>
       <c r="C259" s="2">
-        <v>11919009154</v>
+        <v>12012195116</v>
       </c>
       <c r="D259" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5549,13 +5549,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>162.7</v>
+        <v>166.68</v>
       </c>
       <c r="C260" s="2">
-        <v>440520577457</v>
+        <v>435068819457</v>
       </c>
       <c r="D260" s="3">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5563,13 +5563,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>25.26</v>
+        <v>24.605</v>
       </c>
       <c r="C261" s="2">
-        <v>8290424593</v>
+        <v>8298910248</v>
       </c>
       <c r="D261" s="3">
-        <v>783</v>
+        <v>804</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,13 +5577,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>142.29</v>
+        <v>145.91</v>
       </c>
       <c r="C262" s="2">
-        <v>433224024191</v>
+        <v>424403248932</v>
       </c>
       <c r="D262" s="3">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5591,13 +5591,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>60.95</v>
+        <v>59.601</v>
       </c>
       <c r="C263" s="2">
-        <v>20541419271</v>
+        <v>20872975840</v>
       </c>
       <c r="D263" s="3">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5605,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>18.82</v>
+        <v>18.51</v>
       </c>
       <c r="C264" s="2">
-        <v>18155127527</v>
+        <v>18291993310</v>
       </c>
       <c r="D264" s="3">
-        <v>1052</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,13 +5619,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>148.45</v>
+        <v>154.22</v>
       </c>
       <c r="C265" s="2">
-        <v>27643233761</v>
+        <v>27858141610</v>
       </c>
       <c r="D265" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5633,13 +5633,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>33.34</v>
+        <v>32.358</v>
       </c>
       <c r="C266" s="2">
-        <v>39470554295</v>
+        <v>39518126604</v>
       </c>
       <c r="D266" s="3">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5647,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>16.73</v>
+        <v>17.079</v>
       </c>
       <c r="C267" s="2">
-        <v>7475409237</v>
+        <v>7174702997</v>
       </c>
       <c r="D267" s="3">
-        <v>1183</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,13 +5661,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>305.98</v>
+        <v>323.85</v>
       </c>
       <c r="C268" s="2">
-        <v>48787767297</v>
+        <v>48394270054</v>
       </c>
       <c r="D268" s="3">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5675,13 +5675,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>135.24</v>
+        <v>136.61</v>
       </c>
       <c r="C269" s="2">
-        <v>46100239448</v>
+        <v>46249940929</v>
       </c>
       <c r="D269" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5689,13 +5689,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>15.54</v>
+        <v>15.807</v>
       </c>
       <c r="C270" s="2">
-        <v>35746253866</v>
+        <v>37260071594</v>
       </c>
       <c r="D270" s="3">
-        <v>1274</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5703,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>106.64</v>
+        <v>116.43</v>
       </c>
       <c r="C271" s="2">
-        <v>17839916980</v>
+        <v>19116052135</v>
       </c>
       <c r="D271" s="3">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5717,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>49.4</v>
+        <v>50.085</v>
       </c>
       <c r="C272" s="2">
-        <v>212393563590</v>
+        <v>210570829965</v>
       </c>
       <c r="D272" s="3">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5731,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>35</v>
+        <v>33.83</v>
       </c>
       <c r="C273" s="2">
-        <v>25705666196</v>
+        <v>25534197393</v>
       </c>
       <c r="D273" s="3">
-        <v>565</v>
+        <v>585</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5745,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>43.9</v>
+        <v>44.65</v>
       </c>
       <c r="C274" s="2">
-        <v>7024387859</v>
+        <v>7093562101</v>
       </c>
       <c r="D274" s="3">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5759,13 +5759,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>220.4</v>
+        <v>222.51</v>
       </c>
       <c r="C275" s="2">
-        <v>20324658454</v>
+        <v>20757681207</v>
       </c>
       <c r="D275" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5773,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>48.6</v>
+        <v>49.433</v>
       </c>
       <c r="C276" s="2">
-        <v>13255344645</v>
+        <v>13754960724</v>
       </c>
       <c r="D276" s="3">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5787,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
       <c r="C277" s="2">
-        <v>12901874371</v>
+        <v>13114560269</v>
       </c>
       <c r="D277" s="3">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5801,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>108.02</v>
+        <v>111.94</v>
       </c>
       <c r="C278" s="2">
-        <v>15444973087</v>
+        <v>16357968589</v>
       </c>
       <c r="D278" s="3">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5815,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>44.38</v>
+        <v>45.74</v>
       </c>
       <c r="C279" s="2">
-        <v>6001721245</v>
+        <v>5846457686</v>
       </c>
       <c r="D279" s="3">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,13 +5829,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>77.95</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="C280" s="2">
-        <v>23959957323</v>
+        <v>24233202856</v>
       </c>
       <c r="D280" s="3">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5843,10 +5843,10 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>225.74</v>
+        <v>226.538</v>
       </c>
       <c r="C281" s="2">
-        <v>22011848969</v>
+        <v>21974707372</v>
       </c>
       <c r="D281" s="3">
         <v>87</v>
@@ -5857,13 +5857,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>196.66</v>
+        <v>194.4</v>
       </c>
       <c r="C282" s="2">
-        <v>40183301568</v>
+        <v>40596339423</v>
       </c>
       <c r="D282" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>259.58</v>
+        <v>260.47</v>
       </c>
       <c r="C283" s="2">
-        <v>138293229749</v>
+        <v>136977848570</v>
       </c>
       <c r="D283" s="3">
         <v>76</v>
@@ -5885,13 +5885,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>38.05</v>
+        <v>39.01</v>
       </c>
       <c r="C284" s="2">
-        <v>11629357660</v>
+        <v>11819090442</v>
       </c>
       <c r="D284" s="3">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5899,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>193.63</v>
+        <v>204.04</v>
       </c>
       <c r="C285" s="2">
-        <v>184331950623</v>
+        <v>194524942173</v>
       </c>
       <c r="D285" s="3">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5913,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>351.47</v>
+        <v>364.35</v>
       </c>
       <c r="C286" s="2">
-        <v>98738774894</v>
+        <v>97401822173</v>
       </c>
       <c r="D286" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5927,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>52</v>
+        <v>55.26</v>
       </c>
       <c r="C287" s="2">
-        <v>10414215127</v>
+        <v>10674283152</v>
       </c>
       <c r="D287" s="3">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5941,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>50.07</v>
+        <v>49.8</v>
       </c>
       <c r="C288" s="2">
-        <v>12819432961</v>
+        <v>12470623932</v>
       </c>
       <c r="D288" s="3">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5955,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>171.96</v>
+        <v>177.973</v>
       </c>
       <c r="C289" s="2">
-        <v>130298133914</v>
+        <v>128269959513</v>
       </c>
       <c r="D289" s="3">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,13 +5969,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>555.4</v>
+        <v>568.7</v>
       </c>
       <c r="C290" s="2">
-        <v>79181182103</v>
+        <v>83136552311</v>
       </c>
       <c r="D290" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,13 +5983,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>48.82</v>
+        <v>48.098</v>
       </c>
       <c r="C291" s="2">
-        <v>27613060685</v>
+        <v>28955348336</v>
       </c>
       <c r="D291" s="3">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5997,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>55.75</v>
+        <v>55.9</v>
       </c>
       <c r="C292" s="2">
-        <v>40942047480</v>
+        <v>41077776100</v>
       </c>
       <c r="D292" s="3">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6011,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>80.7</v>
+        <v>79.374</v>
       </c>
       <c r="C293" s="2">
-        <v>11871114793</v>
+        <v>11901341995</v>
       </c>
       <c r="D293" s="3">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6025,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>97.15000000000001</v>
+        <v>97.03</v>
       </c>
       <c r="C294" s="2">
-        <v>31838457565</v>
+        <v>31484296390</v>
       </c>
       <c r="D294" s="3">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6039,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>74.47</v>
+        <v>74.919</v>
       </c>
       <c r="C295" s="2">
-        <v>15658126584</v>
+        <v>16059436134</v>
       </c>
       <c r="D295" s="3">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6053,13 +6053,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>325.94</v>
+        <v>342.32</v>
       </c>
       <c r="C296" s="2">
-        <v>324678855593</v>
+        <v>331894029022</v>
       </c>
       <c r="D296" s="3">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6067,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>138.14</v>
+        <v>135.538</v>
       </c>
       <c r="C297" s="2">
-        <v>15544024530</v>
+        <v>15728537059</v>
       </c>
       <c r="D297" s="3">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6081,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>129.8</v>
+        <v>132.434</v>
       </c>
       <c r="C298" s="2">
-        <v>42637291056</v>
+        <v>42867009428</v>
       </c>
       <c r="D298" s="3">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>56.94</v>
+        <v>57.4</v>
       </c>
       <c r="C299" s="2">
-        <v>14823136041</v>
+        <v>15290401152</v>
       </c>
       <c r="D299" s="3">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6109,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>218.8</v>
+        <v>216.97</v>
       </c>
       <c r="C300" s="2">
-        <v>160529417080</v>
+        <v>159373184431</v>
       </c>
       <c r="D300" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6123,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>154.14</v>
+        <v>157.4</v>
       </c>
       <c r="C301" s="2">
-        <v>39365556553</v>
+        <v>39569157622</v>
       </c>
       <c r="D301" s="3">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6137,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>191.86</v>
+        <v>188.67</v>
       </c>
       <c r="C302" s="2">
-        <v>30118742177</v>
+        <v>30560660692</v>
       </c>
       <c r="D302" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,13 +6151,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>276.19</v>
+        <v>274.7</v>
       </c>
       <c r="C303" s="2">
-        <v>51782890784</v>
+        <v>50528744180</v>
       </c>
       <c r="D303" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6165,13 +6165,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>59.3</v>
+        <v>58.28</v>
       </c>
       <c r="C304" s="2">
-        <v>81914121995</v>
+        <v>84847321621</v>
       </c>
       <c r="D304" s="3">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6179,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>119.36</v>
+        <v>123.54</v>
       </c>
       <c r="C305" s="2">
-        <v>164474625864</v>
+        <v>165886834344</v>
       </c>
       <c r="D305" s="3">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6193,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>53.63</v>
+        <v>53.03</v>
       </c>
       <c r="C306" s="2">
-        <v>47903670875</v>
+        <v>47967052440</v>
       </c>
       <c r="D306" s="3">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6207,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>31.1</v>
+        <v>31.548</v>
       </c>
       <c r="C307" s="2">
-        <v>15304826639</v>
+        <v>15667162699</v>
       </c>
       <c r="D307" s="3">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6221,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>149.16</v>
+        <v>154.34</v>
       </c>
       <c r="C308" s="2">
-        <v>11080336167</v>
+        <v>11033601459</v>
       </c>
       <c r="D308" s="3">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,13 +6235,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>95.78</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C309" s="2">
-        <v>12861856079</v>
+        <v>25074394744</v>
       </c>
       <c r="D309" s="3">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6249,13 +6249,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>529</v>
+        <v>517.87</v>
       </c>
       <c r="C310" s="2">
-        <v>20380381661</v>
+        <v>19856751421</v>
       </c>
       <c r="D310" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,13 +6263,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>304.61</v>
+        <v>318.148</v>
       </c>
       <c r="C311" s="2">
-        <v>19495826454</v>
+        <v>19998171359</v>
       </c>
       <c r="D311" s="3">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6277,13 +6277,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>112.45</v>
+        <v>115.08</v>
       </c>
       <c r="C312" s="2">
-        <v>57825055611</v>
+        <v>59877446469</v>
       </c>
       <c r="D312" s="3">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6291,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>166.22</v>
+        <v>174.06</v>
       </c>
       <c r="C313" s="2">
-        <v>99735610853</v>
+        <v>97351793899</v>
       </c>
       <c r="D313" s="3">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,13 +6305,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>92.11</v>
+        <v>93.995</v>
       </c>
       <c r="C314" s="2">
-        <v>49302110154</v>
+        <v>50219227054</v>
       </c>
       <c r="D314" s="3">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6319,13 +6319,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>41.8</v>
+        <v>41.938</v>
       </c>
       <c r="C315" s="2">
-        <v>80234879418</v>
+        <v>80377963771</v>
       </c>
       <c r="D315" s="3">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6333,13 +6333,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>29.57</v>
+        <v>28.576</v>
       </c>
       <c r="C316" s="2">
-        <v>10951838372</v>
+        <v>11230699380</v>
       </c>
       <c r="D316" s="3">
-        <v>669</v>
+        <v>692</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6347,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>45.31</v>
+        <v>47.67</v>
       </c>
       <c r="C317" s="2">
-        <v>28925829536</v>
+        <v>31166165224</v>
       </c>
       <c r="D317" s="3">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,13 +6361,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>84.90000000000001</v>
+        <v>84.56</v>
       </c>
       <c r="C318" s="2">
-        <v>218942162190</v>
+        <v>211529340785</v>
       </c>
       <c r="D318" s="3">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6375,13 +6375,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>8.289999999999999</v>
+        <v>8.917</v>
       </c>
       <c r="C319" s="2">
-        <v>6789848739</v>
+        <v>6881852354</v>
       </c>
       <c r="D319" s="3">
-        <v>2388</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6389,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>76.90000000000001</v>
+        <v>79.06</v>
       </c>
       <c r="C320" s="2">
-        <v>141763315846</v>
+        <v>140291384763</v>
       </c>
       <c r="D320" s="3">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,10 +6403,10 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>419.5</v>
+        <v>418.806</v>
       </c>
       <c r="C321" s="2">
-        <v>35686036035</v>
+        <v>34153044284</v>
       </c>
       <c r="D321" s="3">
         <v>47</v>
@@ -6417,13 +6417,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>215.3</v>
+        <v>223.9</v>
       </c>
       <c r="C322" s="2">
-        <v>1666787426476</v>
+        <v>1669908554989</v>
       </c>
       <c r="D322" s="3">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6431,13 +6431,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>175.32</v>
+        <v>174.536</v>
       </c>
       <c r="C323" s="2">
-        <v>29939489929</v>
+        <v>29624001225</v>
       </c>
       <c r="D323" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,10 +6445,10 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>151.55</v>
+        <v>152.142</v>
       </c>
       <c r="C324" s="2">
-        <v>19301129640</v>
+        <v>19034433431</v>
       </c>
       <c r="D324" s="3">
         <v>130</v>
@@ -6459,10 +6459,10 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1274.8</v>
+        <v>1267.03</v>
       </c>
       <c r="C325" s="2">
-        <v>29151306472</v>
+        <v>29613983901</v>
       </c>
       <c r="D325" s="3">
         <v>15</v>
@@ -6473,13 +6473,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>82.58</v>
+        <v>84.38</v>
       </c>
       <c r="C326" s="2">
-        <v>92541056715</v>
+        <v>95625401539</v>
       </c>
       <c r="D326" s="3">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6487,13 +6487,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>97.23</v>
+        <v>98.77</v>
       </c>
       <c r="C327" s="2">
-        <v>26562578728</v>
+        <v>27019194025</v>
       </c>
       <c r="D327" s="3">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,13 +6501,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.155</v>
+        <v>16</v>
       </c>
       <c r="C328" s="2">
-        <v>8820150875</v>
+        <v>8959096377</v>
       </c>
       <c r="D328" s="3">
-        <v>1225</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6515,13 +6515,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.56</v>
+        <v>8.74</v>
       </c>
       <c r="C329" s="2">
-        <v>4217594021</v>
+        <v>4281470785</v>
       </c>
       <c r="D329" s="3">
-        <v>2313</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6529,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>25.4</v>
+        <v>25.879</v>
       </c>
       <c r="C330" s="2">
-        <v>5571994419</v>
+        <v>5613805724</v>
       </c>
       <c r="D330" s="3">
-        <v>779</v>
+        <v>765</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,13 +6543,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>144.81</v>
+        <v>149.24</v>
       </c>
       <c r="C331" s="2">
-        <v>23810882454</v>
+        <v>23458712260</v>
       </c>
       <c r="D331" s="3">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6557,13 +6557,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>85.31</v>
+        <v>84.48999999999999</v>
       </c>
       <c r="C332" s="2">
-        <v>165379672386</v>
+        <v>166675791496</v>
       </c>
       <c r="D332" s="3">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6571,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>64.06</v>
+        <v>63.44</v>
       </c>
       <c r="C333" s="2">
-        <v>50787555922</v>
+        <v>51813546342</v>
       </c>
       <c r="D333" s="3">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6585,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>501.09</v>
+        <v>520.773</v>
       </c>
       <c r="C334" s="2">
-        <v>230848679090</v>
+        <v>232999477717</v>
       </c>
       <c r="D334" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6599,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>23.93</v>
+        <v>23.04</v>
       </c>
       <c r="C335" s="2">
-        <v>8991421505</v>
+        <v>8834888434</v>
       </c>
       <c r="D335" s="3">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6613,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>145.89</v>
+        <v>143.433</v>
       </c>
       <c r="C336" s="2">
-        <v>225659975216</v>
+        <v>226248809283</v>
       </c>
       <c r="D336" s="3">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6627,13 +6627,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>20.97</v>
+        <v>21.47</v>
       </c>
       <c r="C337" s="2">
-        <v>12518909669</v>
+        <v>12957475224</v>
       </c>
       <c r="D337" s="3">
-        <v>944</v>
+        <v>922</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6641,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>22.55</v>
+        <v>22.792</v>
       </c>
       <c r="C338" s="2">
-        <v>8108650725</v>
+        <v>8369469225</v>
       </c>
       <c r="D338" s="3">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,13 +6655,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>305.76</v>
+        <v>313.398</v>
       </c>
       <c r="C339" s="2">
-        <v>50420013864</v>
+        <v>51399037373</v>
       </c>
       <c r="D339" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6669,13 +6669,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>14.86</v>
+        <v>14.212</v>
       </c>
       <c r="C340" s="2">
-        <v>5981681165</v>
+        <v>5526543874</v>
       </c>
       <c r="D340" s="3">
-        <v>1332</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,13 +6683,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>527.12</v>
+        <v>537.22</v>
       </c>
       <c r="C341" s="2">
-        <v>103068232705</v>
+        <v>104945511306</v>
       </c>
       <c r="D341" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6697,13 +6697,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>41.58</v>
+        <v>41.37</v>
       </c>
       <c r="C342" s="2">
-        <v>10212422541</v>
+        <v>10192554692</v>
       </c>
       <c r="D342" s="3">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,13 +6711,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>261.74</v>
+        <v>259.55</v>
       </c>
       <c r="C343" s="2">
-        <v>66551109211</v>
+        <v>66053098595</v>
       </c>
       <c r="D343" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6725,13 +6725,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>66.27</v>
+        <v>67.17</v>
       </c>
       <c r="C344" s="2">
-        <v>14633412541</v>
+        <v>14413650160</v>
       </c>
       <c r="D344" s="3">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6739,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>100.78</v>
+        <v>99.87</v>
       </c>
       <c r="C345" s="2">
-        <v>20571505734</v>
+        <v>21056261796</v>
       </c>
       <c r="D345" s="3">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6753,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>56.2</v>
+        <v>57.264</v>
       </c>
       <c r="C346" s="2">
-        <v>16836777115</v>
+        <v>17879510973</v>
       </c>
       <c r="D346" s="3">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,10 +6767,10 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>521.53</v>
+        <v>521.66</v>
       </c>
       <c r="C347" s="2">
-        <v>328501230695</v>
+        <v>321750195606</v>
       </c>
       <c r="D347" s="3">
         <v>37</v>
@@ -6781,10 +6781,10 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>4176.97</v>
+        <v>4251.89</v>
       </c>
       <c r="C348" s="2">
-        <v>15320318141</v>
+        <v>15406094624</v>
       </c>
       <c r="D348" s="3">
         <v>4</v>
@@ -6795,13 +6795,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>24.39</v>
+        <v>24.3</v>
       </c>
       <c r="C349" s="2">
-        <v>10499130679</v>
+        <v>10696921720</v>
       </c>
       <c r="D349" s="3">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6809,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>18.66</v>
+        <v>18.635</v>
       </c>
       <c r="C350" s="2">
-        <v>11410860110</v>
+        <v>11109840639</v>
       </c>
       <c r="D350" s="3">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6823,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>19.4</v>
+        <v>18.798</v>
       </c>
       <c r="C351" s="2">
-        <v>11055768981</v>
+        <v>11144510457</v>
       </c>
       <c r="D351" s="3">
-        <v>1020</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6837,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>59.2</v>
+        <v>60.89</v>
       </c>
       <c r="C352" s="2">
-        <v>22042705546</v>
+        <v>21162118690</v>
       </c>
       <c r="D352" s="3">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,13 +6851,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>212.85</v>
+        <v>219.91</v>
       </c>
       <c r="C353" s="2">
-        <v>24850774922</v>
+        <v>25083162082</v>
       </c>
       <c r="D353" s="3">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6865,13 +6865,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>45.6</v>
+        <v>44.4</v>
       </c>
       <c r="C354" s="2">
-        <v>20395839599</v>
+        <v>20201262020</v>
       </c>
       <c r="D354" s="3">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,13 +6879,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>65.94</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C355" s="2">
-        <v>13984611339</v>
+        <v>13992937367</v>
       </c>
       <c r="D355" s="3">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6893,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>62.81</v>
+        <v>61.991</v>
       </c>
       <c r="C356" s="2">
-        <v>184966132767</v>
+        <v>184001770839</v>
       </c>
       <c r="D356" s="3">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,13 +6907,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>476.27</v>
+        <v>467.08</v>
       </c>
       <c r="C357" s="2">
-        <v>34001320551</v>
+        <v>35153407049</v>
       </c>
       <c r="D357" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6921,13 +6921,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>68.28</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C358" s="2">
-        <v>28538257825</v>
+        <v>28888295920</v>
       </c>
       <c r="D358" s="3">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6935,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>22.71</v>
+        <v>24.294</v>
       </c>
       <c r="C359" s="2">
-        <v>20972433741</v>
+        <v>22726030551</v>
       </c>
       <c r="D359" s="3">
-        <v>871</v>
+        <v>815</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,13 +6949,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>406</v>
+        <v>402.62</v>
       </c>
       <c r="C360" s="2">
-        <v>23537867479</v>
+        <v>24427839130</v>
       </c>
       <c r="D360" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6963,13 +6963,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>90.12</v>
+        <v>89.28</v>
       </c>
       <c r="C361" s="2">
-        <v>32201402962</v>
+        <v>33318752658</v>
       </c>
       <c r="D361" s="3">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6977,13 +6977,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>15.05</v>
+        <v>14.803</v>
       </c>
       <c r="C362" s="2">
-        <v>6401307819</v>
+        <v>6403631052</v>
       </c>
       <c r="D362" s="3">
-        <v>1315</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6991,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>89.52</v>
+        <v>90.34</v>
       </c>
       <c r="C363" s="2">
-        <v>31476935786</v>
+        <v>31011729150</v>
       </c>
       <c r="D363" s="3">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7005,13 +7005,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>31.18</v>
+        <v>29.45</v>
       </c>
       <c r="C364" s="2">
-        <v>16924922262</v>
+        <v>16482241925</v>
       </c>
       <c r="D364" s="3">
-        <v>635</v>
+        <v>672</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,13 +7019,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>61.44</v>
+        <v>58.92</v>
       </c>
       <c r="C365" s="2">
-        <v>30152886411</v>
+        <v>30180434451</v>
       </c>
       <c r="D365" s="3">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7033,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>144.65</v>
+        <v>148.23</v>
       </c>
       <c r="C366" s="2">
-        <v>200704780549</v>
+        <v>202606619715</v>
       </c>
       <c r="D366" s="3">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7047,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>37.3</v>
+        <v>38.512</v>
       </c>
       <c r="C367" s="2">
-        <v>209562761173</v>
+        <v>210702120212</v>
       </c>
       <c r="D367" s="3">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7061,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>53.31</v>
+        <v>55.21</v>
       </c>
       <c r="C368" s="2">
-        <v>14975121576</v>
+        <v>15236479796</v>
       </c>
       <c r="D368" s="3">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,13 +7075,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>139.08</v>
+        <v>141.05</v>
       </c>
       <c r="C369" s="2">
-        <v>346389312434</v>
+        <v>347516656790</v>
       </c>
       <c r="D369" s="3">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7089,13 +7089,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>96</v>
+        <v>98.943</v>
       </c>
       <c r="C370" s="2">
-        <v>56587753135</v>
+        <v>57048177417</v>
       </c>
       <c r="D370" s="3">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,13 +7103,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>287</v>
+        <v>296.22</v>
       </c>
       <c r="C371" s="2">
-        <v>37652778338</v>
+        <v>38977929176</v>
       </c>
       <c r="D371" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7117,13 +7117,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>43.8</v>
+        <v>44.16</v>
       </c>
       <c r="C372" s="2">
-        <v>11911296161</v>
+        <v>11934989119</v>
       </c>
       <c r="D372" s="3">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7131,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>147.19</v>
+        <v>143</v>
       </c>
       <c r="C373" s="2">
-        <v>13905325333</v>
+        <v>13863294087</v>
       </c>
       <c r="D373" s="3">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7145,13 +7145,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>153.74</v>
+        <v>158.1</v>
       </c>
       <c r="C374" s="2">
-        <v>17172777251</v>
+        <v>17128873455</v>
       </c>
       <c r="D374" s="3">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,13 +7159,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>97.70999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C375" s="2">
-        <v>73977472196</v>
+        <v>72651405538</v>
       </c>
       <c r="D375" s="3">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7173,13 +7173,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>83.43000000000001</v>
+        <v>82.19499999999999</v>
       </c>
       <c r="C376" s="2">
-        <v>129994910768</v>
+        <v>129113875279</v>
       </c>
       <c r="D376" s="3">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7187,13 +7187,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>159.64</v>
+        <v>162.46</v>
       </c>
       <c r="C377" s="2">
-        <v>66510425294</v>
+        <v>66266697830</v>
       </c>
       <c r="D377" s="3">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7201,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>57.96</v>
+        <v>60.19</v>
       </c>
       <c r="C378" s="2">
-        <v>9835583885</v>
+        <v>9861121677</v>
       </c>
       <c r="D378" s="3">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7215,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>81.36</v>
+        <v>81.7</v>
       </c>
       <c r="C379" s="2">
-        <v>8882951064</v>
+        <v>9121697335</v>
       </c>
       <c r="D379" s="3">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7229,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>152.66</v>
+        <v>154.88</v>
       </c>
       <c r="C380" s="2">
-        <v>36355834942</v>
+        <v>35621091786</v>
       </c>
       <c r="D380" s="3">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7243,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>29.88</v>
+        <v>29.28</v>
       </c>
       <c r="C381" s="2">
-        <v>22502040717</v>
+        <v>22145822125</v>
       </c>
       <c r="D381" s="3">
-        <v>662</v>
+        <v>676</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7257,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>43.72</v>
+        <v>45</v>
       </c>
       <c r="C382" s="2">
-        <v>6168243923</v>
+        <v>6024850326</v>
       </c>
       <c r="D382" s="3">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7271,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>84.98</v>
+        <v>86.77</v>
       </c>
       <c r="C383" s="2">
-        <v>34146549578</v>
+        <v>33938602367</v>
       </c>
       <c r="D383" s="3">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,13 +7285,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>230.21</v>
+        <v>226.26</v>
       </c>
       <c r="C384" s="2">
-        <v>40347544996</v>
+        <v>38795472881</v>
       </c>
       <c r="D384" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7299,13 +7299,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>72.3</v>
+        <v>77.33</v>
       </c>
       <c r="C385" s="2">
-        <v>32694378999</v>
+        <v>33756205366</v>
       </c>
       <c r="D385" s="3">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7313,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>102.49</v>
+        <v>101.05</v>
       </c>
       <c r="C386" s="2">
-        <v>7150632461</v>
+        <v>7356815981</v>
       </c>
       <c r="D386" s="3">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,13 +7327,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>76.7</v>
+        <v>77.59</v>
       </c>
       <c r="C387" s="2">
-        <v>10599923988</v>
+        <v>11012256380</v>
       </c>
       <c r="D387" s="3">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7341,13 +7341,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>128.54</v>
+        <v>133.57</v>
       </c>
       <c r="C388" s="2">
-        <v>21255790627</v>
+        <v>22049713553</v>
       </c>
       <c r="D388" s="3">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,13 +7355,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>240.99</v>
+        <v>250.74</v>
       </c>
       <c r="C389" s="2">
-        <v>288819826119</v>
+        <v>294508424969</v>
       </c>
       <c r="D389" s="3">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7369,13 +7369,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>162.37</v>
+        <v>165.47</v>
       </c>
       <c r="C390" s="2">
-        <v>185799710879</v>
+        <v>188067410916</v>
       </c>
       <c r="D390" s="3">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7383,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>183.97</v>
+        <v>187.97</v>
       </c>
       <c r="C391" s="2">
-        <v>20428924648</v>
+        <v>21554034879</v>
       </c>
       <c r="D391" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7397,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>73.98999999999999</v>
+        <v>76.42</v>
       </c>
       <c r="C392" s="2">
-        <v>17079898938</v>
+        <v>16919436657</v>
       </c>
       <c r="D392" s="3">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,13 +7411,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>241.8</v>
+        <v>237.369</v>
       </c>
       <c r="C393" s="2">
-        <v>9628583593</v>
+        <v>9512965822</v>
       </c>
       <c r="D393" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7425,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>48.99</v>
+        <v>47.83</v>
       </c>
       <c r="C394" s="2">
-        <v>8347484602</v>
+        <v>8178903952</v>
       </c>
       <c r="D394" s="3">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,10 +7439,10 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>537.49</v>
+        <v>547.6799999999999</v>
       </c>
       <c r="C395" s="2">
-        <v>56225627017</v>
+        <v>56136588568</v>
       </c>
       <c r="D395" s="3">
         <v>36</v>
@@ -7453,13 +7453,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>18.54</v>
+        <v>18.78</v>
       </c>
       <c r="C396" s="2">
-        <v>17924828695</v>
+        <v>18208933283</v>
       </c>
       <c r="D396" s="3">
-        <v>1068</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7467,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>66.31</v>
+        <v>64.89</v>
       </c>
       <c r="C397" s="2">
-        <v>7499346170</v>
+        <v>7417330172</v>
       </c>
       <c r="D397" s="3">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,13 +7481,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>104.98</v>
+        <v>105.49</v>
       </c>
       <c r="C398" s="2">
-        <v>14311541648</v>
+        <v>14802200531</v>
       </c>
       <c r="D398" s="3">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7495,13 +7495,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>111.73</v>
+        <v>111.2</v>
       </c>
       <c r="C399" s="2">
-        <v>8172271733</v>
+        <v>8103737563</v>
       </c>
       <c r="D399" s="3">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,13 +7509,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>218.8</v>
+        <v>216.9</v>
       </c>
       <c r="C400" s="2">
-        <v>31375920485</v>
+        <v>31455485953</v>
       </c>
       <c r="D400" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7523,13 +7523,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>260.7</v>
+        <v>274.742</v>
       </c>
       <c r="C401" s="2">
-        <v>31076699758</v>
+        <v>31917445908</v>
       </c>
       <c r="D401" s="3">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7537,13 +7537,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>37.58</v>
+        <v>37.3</v>
       </c>
       <c r="C402" s="2">
-        <v>18414791991</v>
+        <v>18207177456</v>
       </c>
       <c r="D402" s="3">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,13 +7551,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>419.24</v>
+        <v>425.93</v>
       </c>
       <c r="C403" s="2">
-        <v>44706422632</v>
+        <v>44723291493</v>
       </c>
       <c r="D403" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7565,13 +7565,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>121.9</v>
+        <v>115.72</v>
       </c>
       <c r="C404" s="2">
-        <v>43257912584</v>
+        <v>41154724819</v>
       </c>
       <c r="D404" s="3">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,13 +7579,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>97.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C405" s="2">
-        <v>30635984375</v>
+        <v>30918204215</v>
       </c>
       <c r="D405" s="3">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7593,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>71.5</v>
+        <v>71.27</v>
       </c>
       <c r="C406" s="2">
-        <v>105914990129</v>
+        <v>106893262888</v>
       </c>
       <c r="D406" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7607,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>272.6</v>
+        <v>276.44</v>
       </c>
       <c r="C407" s="2">
-        <v>30551244012</v>
+        <v>31194555745</v>
       </c>
       <c r="D407" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7621,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>107.38</v>
+        <v>104.264</v>
       </c>
       <c r="C408" s="2">
-        <v>119826085047</v>
+        <v>118928193090</v>
       </c>
       <c r="D408" s="3">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7635,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>60.81</v>
+        <v>61.93</v>
       </c>
       <c r="C409" s="2">
-        <v>111457045729</v>
+        <v>116416353242</v>
       </c>
       <c r="D409" s="3">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7649,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>45.7</v>
+        <v>45.15</v>
       </c>
       <c r="C410" s="2">
-        <v>6926329902</v>
+        <v>7055190517</v>
       </c>
       <c r="D410" s="3">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,10 +7663,10 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>750.21</v>
+        <v>750.499</v>
       </c>
       <c r="C411" s="2">
-        <v>66570204509</v>
+        <v>67096432895</v>
       </c>
       <c r="D411" s="3">
         <v>26</v>
@@ -7677,13 +7677,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>479.12</v>
+        <v>484.74</v>
       </c>
       <c r="C412" s="2">
-        <v>24960735829</v>
+        <v>24528999715</v>
       </c>
       <c r="D412" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7691,13 +7691,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>114.95</v>
+        <v>118.32</v>
       </c>
       <c r="C413" s="2">
-        <v>13164153736</v>
+        <v>13461503195</v>
       </c>
       <c r="D413" s="3">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7705,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>25.26</v>
+        <v>26.652</v>
       </c>
       <c r="C414" s="2">
-        <v>36173398499</v>
+        <v>37313078261</v>
       </c>
       <c r="D414" s="3">
-        <v>783</v>
+        <v>742</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7719,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>62.84</v>
+        <v>63.78</v>
       </c>
       <c r="C415" s="2">
-        <v>4670536807</v>
+        <v>4597402149</v>
       </c>
       <c r="D415" s="3">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,13 +7733,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>174.41</v>
+        <v>177.2</v>
       </c>
       <c r="C416" s="2">
-        <v>9226221455</v>
+        <v>9548794920</v>
       </c>
       <c r="D416" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7747,10 +7747,10 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>266.72</v>
+        <v>267.34</v>
       </c>
       <c r="C417" s="2">
-        <v>40323988115</v>
+        <v>42023469254</v>
       </c>
       <c r="D417" s="3">
         <v>74</v>
@@ -7761,13 +7761,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>61.23</v>
+        <v>60.8</v>
       </c>
       <c r="C418" s="2">
-        <v>63054694204</v>
+        <v>64272221376</v>
       </c>
       <c r="D418" s="3">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,13 +7775,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>94</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="C419" s="2">
-        <v>31652697622</v>
+        <v>31063318986</v>
       </c>
       <c r="D419" s="3">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,13 +7789,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>310.31</v>
+        <v>317.77</v>
       </c>
       <c r="C420" s="2">
-        <v>74602030871</v>
+        <v>75733398863</v>
       </c>
       <c r="D420" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7803,13 +7803,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>124.25</v>
+        <v>124.71</v>
       </c>
       <c r="C421" s="2">
-        <v>36568827597</v>
+        <v>36498748635</v>
       </c>
       <c r="D421" s="3">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7817,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>193.18</v>
+        <v>187.07</v>
       </c>
       <c r="C422" s="2">
-        <v>15875397771</v>
+        <v>15795754797</v>
       </c>
       <c r="D422" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7831,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>79.8</v>
+        <v>76.848</v>
       </c>
       <c r="C423" s="2">
-        <v>28472238384</v>
+        <v>28077668892</v>
       </c>
       <c r="D423" s="3">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7845,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>61.46</v>
+        <v>62.33</v>
       </c>
       <c r="C424" s="2">
-        <v>15786453633</v>
+        <v>16219277874</v>
       </c>
       <c r="D424" s="3">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,13 +7859,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>221.22</v>
+        <v>230.543</v>
       </c>
       <c r="C425" s="2">
-        <v>44264163501</v>
+        <v>44676048972</v>
       </c>
       <c r="D425" s="3">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7873,13 +7873,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>174.22</v>
+        <v>184.27</v>
       </c>
       <c r="C426" s="2">
-        <v>28069535239</v>
+        <v>29309579873</v>
       </c>
       <c r="D426" s="3">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7887,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>157</v>
+        <v>158.1</v>
       </c>
       <c r="C427" s="2">
-        <v>25963771691</v>
+        <v>26922619550</v>
       </c>
       <c r="D427" s="3">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7901,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>38.86</v>
+        <v>40.338</v>
       </c>
       <c r="C428" s="2">
-        <v>23134098634</v>
+        <v>24205726366</v>
       </c>
       <c r="D428" s="3">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,10 +7915,10 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>250.31</v>
+        <v>247.68</v>
       </c>
       <c r="C429" s="2">
-        <v>92340271933</v>
+        <v>95299746975</v>
       </c>
       <c r="D429" s="3">
         <v>79</v>
@@ -7929,13 +7929,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>77.95</v>
+        <v>79.3</v>
       </c>
       <c r="C430" s="2">
-        <v>38593432192</v>
+        <v>39570104258</v>
       </c>
       <c r="D430" s="3">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7943,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>29.88</v>
+        <v>30.108</v>
       </c>
       <c r="C431" s="2">
-        <v>212170175334</v>
+        <v>215517337725</v>
       </c>
       <c r="D431" s="3">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7957,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>53.76</v>
+        <v>53.37</v>
       </c>
       <c r="C432" s="2">
-        <v>10825270464</v>
+        <v>11440636856</v>
       </c>
       <c r="D432" s="3">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,10 +7971,10 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>594.95</v>
+        <v>584.489</v>
       </c>
       <c r="C433" s="2">
-        <v>33172843087</v>
+        <v>32275389911</v>
       </c>
       <c r="D433" s="3">
         <v>33</v>
@@ -7985,10 +7985,10 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>400.57</v>
+        <v>397.809</v>
       </c>
       <c r="C434" s="2">
-        <v>14736122606</v>
+        <v>14965056574</v>
       </c>
       <c r="D434" s="3">
         <v>49</v>
@@ -7999,13 +7999,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>133.28</v>
+        <v>135.57</v>
       </c>
       <c r="C435" s="2">
-        <v>43778700705</v>
+        <v>43743801100</v>
       </c>
       <c r="D435" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8013,13 +8013,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>52.81</v>
+        <v>54.21</v>
       </c>
       <c r="C436" s="2">
-        <v>71198077849</v>
+        <v>70602274341</v>
       </c>
       <c r="D436" s="3">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,13 +8027,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>390.87</v>
+        <v>400.14</v>
       </c>
       <c r="C437" s="2">
-        <v>18485520862</v>
+        <v>19144017493</v>
       </c>
       <c r="D437" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8041,13 +8041,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>204.2</v>
+        <v>195.21</v>
       </c>
       <c r="C438" s="2">
-        <v>99186567163</v>
+        <v>96624978262</v>
       </c>
       <c r="D438" s="3">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8055,10 +8055,10 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>136.43</v>
+        <v>136.52</v>
       </c>
       <c r="C439" s="2">
-        <v>16353979274</v>
+        <v>16317705032</v>
       </c>
       <c r="D439" s="3">
         <v>145</v>
@@ -8069,13 +8069,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>69.64</v>
+        <v>69.87</v>
       </c>
       <c r="C440" s="2">
-        <v>83886244491</v>
+        <v>84885208767</v>
       </c>
       <c r="D440" s="3">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,13 +8083,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>507.46</v>
+        <v>523.78</v>
       </c>
       <c r="C441" s="2">
-        <v>202572642217</v>
+        <v>207876123024</v>
       </c>
       <c r="D441" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8097,13 +8097,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>131.06</v>
+        <v>131.333</v>
       </c>
       <c r="C442" s="2">
-        <v>165160365224</v>
+        <v>166860804694</v>
       </c>
       <c r="D442" s="3">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8111,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>34.87</v>
+        <v>35.3</v>
       </c>
       <c r="C443" s="2">
-        <v>9498592941</v>
+        <v>9494162421</v>
       </c>
       <c r="D443" s="3">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8125,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>162.11</v>
+        <v>160.45</v>
       </c>
       <c r="C444" s="2">
-        <v>35659911903</v>
+        <v>36190562206</v>
       </c>
       <c r="D444" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,13 +8139,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>148.82</v>
+        <v>147.4</v>
       </c>
       <c r="C445" s="2">
-        <v>36439862529</v>
+        <v>37246947629</v>
       </c>
       <c r="D445" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8153,10 +8153,10 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>160.97</v>
+        <v>159.695</v>
       </c>
       <c r="C446" s="2">
-        <v>19149423829</v>
+        <v>18681754042</v>
       </c>
       <c r="D446" s="3">
         <v>123</v>
@@ -8167,13 +8167,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>65.09</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="C447" s="2">
-        <v>24499290057</v>
+        <v>23529448589</v>
       </c>
       <c r="D447" s="3">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,13 +8181,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>151.93</v>
+        <v>154.77</v>
       </c>
       <c r="C448" s="2">
-        <v>36693123512</v>
+        <v>38417225838</v>
       </c>
       <c r="D448" s="3">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8195,10 +8195,10 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>199.39</v>
+        <v>198.032</v>
       </c>
       <c r="C449" s="2">
-        <v>23476243522</v>
+        <v>23054766172</v>
       </c>
       <c r="D449" s="3">
         <v>99</v>
@@ -8209,13 +8209,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>45.69</v>
+        <v>45.396</v>
       </c>
       <c r="C450" s="2">
-        <v>37340705352</v>
+        <v>35801102194</v>
       </c>
       <c r="D450" s="3">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8223,13 +8223,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>174.39</v>
+        <v>178.12</v>
       </c>
       <c r="C451" s="2">
-        <v>155959523893</v>
+        <v>166518571364</v>
       </c>
       <c r="D451" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8237,13 +8237,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>50.7</v>
+        <v>51.95</v>
       </c>
       <c r="C452" s="2">
-        <v>11564268737</v>
+        <v>11990764379</v>
       </c>
       <c r="D452" s="3">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,13 +8251,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>438.23</v>
+        <v>424.3</v>
       </c>
       <c r="C453" s="2">
-        <v>17548293603</v>
+        <v>17900823228</v>
       </c>
       <c r="D453" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8265,13 +8265,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>16.27</v>
+        <v>16.308</v>
       </c>
       <c r="C454" s="2">
-        <v>7584848379</v>
+        <v>8056417796</v>
       </c>
       <c r="D454" s="3">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8279,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>18.99</v>
+        <v>18.77</v>
       </c>
       <c r="C455" s="2">
-        <v>7667573713</v>
+        <v>7859627392</v>
       </c>
       <c r="D455" s="3">
-        <v>1042</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8293,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>45.3</v>
+        <v>44.91</v>
       </c>
       <c r="C456" s="2">
-        <v>13057785873</v>
+        <v>13068026656</v>
       </c>
       <c r="D456" s="3">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8307,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>39.66</v>
+        <v>39.43</v>
       </c>
       <c r="C457" s="2">
-        <v>11763262216</v>
+        <v>11634320170</v>
       </c>
       <c r="D457" s="3">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8321,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>134.78</v>
+        <v>137.89</v>
       </c>
       <c r="C458" s="2">
-        <v>11656627993</v>
+        <v>11443449822</v>
       </c>
       <c r="D458" s="3">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8335,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>314.59</v>
+        <v>301.2</v>
       </c>
       <c r="C459" s="2">
-        <v>17607957539</v>
+        <v>17588085676</v>
       </c>
       <c r="D459" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,10 +8349,10 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>357.7</v>
+        <v>354.54</v>
       </c>
       <c r="C460" s="2">
-        <v>347409321130</v>
+        <v>344266699133</v>
       </c>
       <c r="D460" s="3">
         <v>55</v>
@@ -8363,13 +8363,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>25.54</v>
+        <v>26.19</v>
       </c>
       <c r="C461" s="2">
-        <v>5160998777</v>
+        <v>5459885484</v>
       </c>
       <c r="D461" s="3">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8377,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>220.2</v>
+        <v>227.03</v>
       </c>
       <c r="C462" s="2">
-        <v>146824509410</v>
+        <v>148372148567</v>
       </c>
       <c r="D462" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8391,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>166.7</v>
+        <v>160.93</v>
       </c>
       <c r="C463" s="2">
-        <v>143329151539</v>
+        <v>140453678493</v>
       </c>
       <c r="D463" s="3">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,13 +8405,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>256.06</v>
+        <v>275.28</v>
       </c>
       <c r="C464" s="2">
-        <v>18479963477</v>
+        <v>19807428116</v>
       </c>
       <c r="D464" s="3">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8419,13 +8419,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>48.6</v>
+        <v>49.14</v>
       </c>
       <c r="C465" s="2">
-        <v>73270117646</v>
+        <v>76660497702</v>
       </c>
       <c r="D465" s="3">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,13 +8433,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>210.19</v>
+        <v>210.881</v>
       </c>
       <c r="C466" s="2">
-        <v>463449684604</v>
+        <v>448323737502</v>
       </c>
       <c r="D466" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8447,13 +8447,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>181.18</v>
+        <v>176.83</v>
       </c>
       <c r="C467" s="2">
-        <v>16547746704</v>
+        <v>16739893544</v>
       </c>
       <c r="D467" s="3">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8461,13 +8461,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>87.55</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C468" s="2">
-        <v>33236466880</v>
+        <v>33342829925</v>
       </c>
       <c r="D468" s="3">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8475,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>46.6</v>
+        <v>44.57</v>
       </c>
       <c r="C469" s="2">
-        <v>29144093781</v>
+        <v>27467790296</v>
       </c>
       <c r="D469" s="3">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,13 +8489,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>60.8</v>
+        <v>61.45</v>
       </c>
       <c r="C470" s="2">
-        <v>24716990116</v>
+        <v>25558098109</v>
       </c>
       <c r="D470" s="3">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8503,10 +8503,10 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>167.69</v>
+        <v>167.15</v>
       </c>
       <c r="C471" s="2">
-        <v>22092928149</v>
+        <v>21841640621</v>
       </c>
       <c r="D471" s="3">
         <v>118</v>
@@ -8517,13 +8517,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>38.68</v>
+        <v>40.14</v>
       </c>
       <c r="C472" s="2">
-        <v>7651676717</v>
+        <v>7534627992</v>
       </c>
       <c r="D472" s="3">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8531,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>193.87</v>
+        <v>195.8</v>
       </c>
       <c r="C473" s="2">
-        <v>31759769552</v>
+        <v>31366018076</v>
       </c>
       <c r="D473" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,13 +8545,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>201.97</v>
+        <v>199.69</v>
       </c>
       <c r="C474" s="2">
-        <v>23035125863</v>
+        <v>23227347352</v>
       </c>
       <c r="D474" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8559,13 +8559,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>232.85</v>
+        <v>236.98</v>
       </c>
       <c r="C475" s="2">
-        <v>59922757310</v>
+        <v>60004370423</v>
       </c>
       <c r="D475" s="3">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8573,13 +8573,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>49.68</v>
+        <v>47.68</v>
       </c>
       <c r="C476" s="2">
-        <v>18961177095</v>
+        <v>18105870422</v>
       </c>
       <c r="D476" s="3">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8587,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>59.98</v>
+        <v>59.39</v>
       </c>
       <c r="C477" s="2">
-        <v>242954998150</v>
+        <v>246217155742</v>
       </c>
       <c r="D477" s="3">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8601,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>84.8</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="C478" s="2">
-        <v>16081947390</v>
+        <v>16048181322</v>
       </c>
       <c r="D478" s="3">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,13 +8615,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>280.69</v>
+        <v>284.54</v>
       </c>
       <c r="C479" s="2">
-        <v>17304685379</v>
+        <v>17290540352</v>
       </c>
       <c r="D479" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8629,13 +8629,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>50.51</v>
+        <v>50.613</v>
       </c>
       <c r="C480" s="2">
-        <v>43992008336</v>
+        <v>42788750258</v>
       </c>
       <c r="D480" s="3">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8643,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>51.59</v>
+        <v>53.631</v>
       </c>
       <c r="C481" s="2">
-        <v>16258978037</v>
+        <v>16037416798</v>
       </c>
       <c r="D481" s="3">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8657,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>91.84999999999999</v>
+        <v>88.72</v>
       </c>
       <c r="C482" s="2">
-        <v>28504663140</v>
+        <v>29066895545</v>
       </c>
       <c r="D482" s="3">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8671,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>67.13</v>
+        <v>62.33</v>
       </c>
       <c r="C483" s="2">
-        <v>28096062197</v>
+        <v>26219170846</v>
       </c>
       <c r="D483" s="3">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8685,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>32.32</v>
+        <v>33.55</v>
       </c>
       <c r="C484" s="2">
-        <v>135242369452</v>
+        <v>138755303853</v>
       </c>
       <c r="D484" s="3">
-        <v>612</v>
+        <v>590</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8699,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>200.12</v>
+        <v>202.98</v>
       </c>
       <c r="C485" s="2">
-        <v>12447491931</v>
+        <v>13087147074</v>
       </c>
       <c r="D485" s="3">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,13 +8713,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>211.62</v>
+        <v>216.75</v>
       </c>
       <c r="C486" s="2">
-        <v>27733006517</v>
+        <v>27694806562</v>
       </c>
       <c r="D486" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8727,13 +8727,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>119.79</v>
+        <v>118.61</v>
       </c>
       <c r="C487" s="2">
-        <v>50599537528</v>
+        <v>49319980658</v>
       </c>
       <c r="D487" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8741,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>22.6</v>
+        <v>23.455</v>
       </c>
       <c r="C488" s="2">
-        <v>28198464703</v>
+        <v>28208486717</v>
       </c>
       <c r="D488" s="3">
-        <v>876</v>
+        <v>844</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8755,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>145.45</v>
+        <v>147.03</v>
       </c>
       <c r="C489" s="2">
-        <v>427787719502</v>
+        <v>410617149854</v>
       </c>
       <c r="D489" s="3">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,13 +8769,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>68.2</v>
+        <v>68.5</v>
       </c>
       <c r="C490" s="2">
-        <v>12261157299</v>
+        <v>12379579328</v>
       </c>
       <c r="D490" s="3">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8783,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>46.94</v>
+        <v>45.42</v>
       </c>
       <c r="C491" s="2">
-        <v>12399000555</v>
+        <v>12523835455</v>
       </c>
       <c r="D491" s="3">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,10 +8797,10 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>303.51</v>
+        <v>303.14</v>
       </c>
       <c r="C492" s="2">
-        <v>23090587234</v>
+        <v>22949503216</v>
       </c>
       <c r="D492" s="3">
         <v>65</v>
@@ -8811,13 +8811,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>22.24</v>
+        <v>23.79</v>
       </c>
       <c r="C493" s="2">
-        <v>9072096169</v>
+        <v>9508420357</v>
       </c>
       <c r="D493" s="3">
-        <v>890</v>
+        <v>832</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,10 +8825,10 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>33.9</v>
+        <v>33.861</v>
       </c>
       <c r="C494" s="2">
-        <v>24634673395</v>
+        <v>25619211923</v>
       </c>
       <c r="D494" s="3">
         <v>584</v>
@@ -8839,13 +8839,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>108.15</v>
+        <v>109.44</v>
       </c>
       <c r="C495" s="2">
-        <v>11737429989</v>
+        <v>12188427803</v>
       </c>
       <c r="D495" s="3">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,13 +8853,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>67.31999999999999</v>
+        <v>66.44</v>
       </c>
       <c r="C496" s="2">
-        <v>35816739645</v>
+        <v>34453726868</v>
       </c>
       <c r="D496" s="3">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8867,13 +8867,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>136.9</v>
+        <v>139.74</v>
       </c>
       <c r="C497" s="2">
-        <v>34669659711</v>
+        <v>34058302885</v>
       </c>
       <c r="D497" s="3">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8881,13 +8881,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>48.09</v>
+        <v>51.63</v>
       </c>
       <c r="C498" s="2">
-        <v>204349356002</v>
+        <v>212472989952</v>
       </c>
       <c r="D498" s="3">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8895,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>60.4</v>
+        <v>60.618</v>
       </c>
       <c r="C499" s="2">
-        <v>13224433908</v>
+        <v>12955929753</v>
       </c>
       <c r="D499" s="3">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8909,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>22.78</v>
+        <v>22.07</v>
       </c>
       <c r="C500" s="2">
-        <v>4596354805</v>
+        <v>4420511895</v>
       </c>
       <c r="D500" s="3">
-        <v>869</v>
+        <v>897</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,10 +8923,10 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="C501" s="2">
-        <v>18884993478</v>
+        <v>19146375168</v>
       </c>
       <c r="D501" s="3">
         <v>186</v>
@@ -8937,13 +8937,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>110.74</v>
+        <v>112.21</v>
       </c>
       <c r="C502" s="2">
-        <v>32867083769</v>
+        <v>33075398208</v>
       </c>
       <c r="D502" s="3">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8951,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>160.55</v>
+        <v>161.59</v>
       </c>
       <c r="C503" s="2">
-        <v>34184910121</v>
+        <v>33476578508</v>
       </c>
       <c r="D503" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,13 +8965,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>421.31</v>
+        <v>424.88</v>
       </c>
       <c r="C504" s="2">
-        <v>22482559742</v>
+        <v>22123181524</v>
       </c>
       <c r="D504" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8979,13 +8979,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>49.81</v>
+        <v>49.73</v>
       </c>
       <c r="C505" s="2">
-        <v>8232899388</v>
+        <v>8210756172</v>
       </c>
       <c r="D505" s="3">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,13 +8993,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>165.05</v>
+        <v>168.18</v>
       </c>
       <c r="C506" s="2">
-        <v>79398894956</v>
+        <v>79794813684</v>
       </c>
       <c r="D506" s="3">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
